--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2856665.546215537</v>
+        <v>2856278.835813738</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247834.3978644343</v>
+        <v>247834.3978644327</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.029273655</v>
+        <v>504792.0292736558</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8058453.844847742</v>
+        <v>8058453.844847743</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>298.3583182544184</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>280.6934088218294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
         <v>145.5577298436975</v>
@@ -750,13 +750,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,13 +789,13 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>9.275027384114098</v>
       </c>
       <c r="V3" t="n">
-        <v>150.4470629121721</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
         <v>238.9027100790231</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6932944279989</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>18.3146860078783</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>333.4832626162617</v>
       </c>
       <c r="F5" t="n">
         <v>10.00967878293136</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
@@ -1035,13 +1035,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>170.858183382634</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>105.8878098036039</v>
       </c>
     </row>
     <row r="7">
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>268.6107013963115</v>
+        <v>23.62900810605255</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78.59602910536552</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>180.3685417218403</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
@@ -1218,16 +1218,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>15.15737841164549</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>168.5002935020557</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>141.5832579820487</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>120.5841378245459</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,22 +1370,22 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C11" t="n">
-        <v>264.6842555723119</v>
+        <v>211.9908017558433</v>
       </c>
       <c r="D11" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>277.4076971867455</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G11" t="n">
         <v>298.5127811721451</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.92652010774083</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U11" t="n">
-        <v>26.21441177108136</v>
+        <v>138.9063174149371</v>
       </c>
       <c r="V11" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>245.4794153327662</v>
@@ -1464,10 +1464,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>78.95005679388034</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
-        <v>158.2977944699493</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U12" t="n">
         <v>216.3098444776729</v>
@@ -1531,7 +1531,7 @@
         <v>54.48964433472776</v>
       </c>
       <c r="D13" t="n">
-        <v>38.11100873230672</v>
+        <v>38.11100873230615</v>
       </c>
       <c r="E13" t="n">
         <v>37.0587585880856</v>
@@ -1540,7 +1540,7 @@
         <v>37.5256829162719</v>
       </c>
       <c r="G13" t="n">
-        <v>53.80038563761974</v>
+        <v>53.8003856376199</v>
       </c>
       <c r="H13" t="n">
         <v>44.34875326031016</v>
@@ -1607,7 +1607,7 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C14" t="n">
-        <v>264.6842555723119</v>
+        <v>250.7216036067938</v>
       </c>
       <c r="D14" t="n">
         <v>255.6655596168399</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G14" t="n">
-        <v>298.5127811721451</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>57.6588612950832</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.92652010774083</v>
       </c>
       <c r="T14" t="n">
         <v>108.6851912980902</v>
@@ -1673,7 +1673,7 @@
         <v>264.7796735655128</v>
       </c>
       <c r="Y14" t="n">
-        <v>274.548010311428</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>39.19800413111547</v>
       </c>
       <c r="S15" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T15" t="n">
-        <v>99.11136825394544</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
         <v>216.3098444776729</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>219.0992794299669</v>
+        <v>219.099279429967</v>
       </c>
       <c r="C17" t="n">
-        <v>207.1105963876487</v>
+        <v>207.1105963876488</v>
       </c>
       <c r="D17" t="n">
         <v>198.0919004321767</v>
       </c>
       <c r="E17" t="n">
-        <v>219.8340380020822</v>
+        <v>219.8340380020823</v>
       </c>
       <c r="F17" t="n">
         <v>239.0058540900594</v>
       </c>
       <c r="G17" t="n">
-        <v>240.9391219874819</v>
+        <v>240.9391219874829</v>
       </c>
       <c r="H17" t="n">
-        <v>158.4892369657918</v>
+        <v>158.4892369657919</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0852021104199423</v>
+        <v>0.08520211042002757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.35286092307757</v>
+        <v>14.35286092307766</v>
       </c>
       <c r="T17" t="n">
-        <v>51.11153211342693</v>
+        <v>51.11153211342702</v>
       </c>
       <c r="U17" t="n">
-        <v>81.33265823027389</v>
+        <v>81.33265823027398</v>
       </c>
       <c r="V17" t="n">
         <v>162.6056566701461</v>
       </c>
       <c r="W17" t="n">
-        <v>187.905756148103</v>
+        <v>187.9057561481031</v>
       </c>
       <c r="X17" t="n">
-        <v>207.2060143808496</v>
+        <v>207.2060143808497</v>
       </c>
       <c r="Y17" t="n">
-        <v>218.6026121770483</v>
+        <v>218.6026121770484</v>
       </c>
     </row>
     <row r="18">
@@ -1932,7 +1932,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>113.3584379847357</v>
       </c>
       <c r="G18" t="n">
         <v>127.4412149769483</v>
@@ -1941,7 +1941,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>63.58460757565794</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
         <v>186.7982527956746</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.71599030466402</v>
+        <v>10.7159903046641</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>40.56884027747731</v>
+        <v>40.56884027747739</v>
       </c>
       <c r="T19" t="n">
-        <v>59.84333895960594</v>
+        <v>59.84333895960603</v>
       </c>
       <c r="U19" t="n">
-        <v>113.3145124229191</v>
+        <v>113.3145124229192</v>
       </c>
       <c r="V19" t="n">
-        <v>87.12412670428961</v>
+        <v>87.12412670428969</v>
       </c>
       <c r="W19" t="n">
-        <v>112.2910127749029</v>
+        <v>112.291012774903</v>
       </c>
       <c r="X19" t="n">
-        <v>57.93611477070598</v>
+        <v>57.93611477070607</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.81098252677367</v>
+        <v>48.81098252677376</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>219.0992794299669</v>
+        <v>219.099279429967</v>
       </c>
       <c r="C20" t="n">
-        <v>207.1105963876487</v>
+        <v>207.1105963876488</v>
       </c>
       <c r="D20" t="n">
         <v>198.0919004321767</v>
       </c>
       <c r="E20" t="n">
-        <v>219.8340380020822</v>
+        <v>219.8340380020823</v>
       </c>
       <c r="F20" t="n">
         <v>239.0058540900594</v>
       </c>
       <c r="G20" t="n">
-        <v>240.9391219874819</v>
+        <v>240.939121987482</v>
       </c>
       <c r="H20" t="n">
-        <v>158.4892369657918</v>
+        <v>158.4892369657919</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08520211042218762</v>
+        <v>0.08520211042002757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.35286092307757</v>
+        <v>14.35286092307766</v>
       </c>
       <c r="T20" t="n">
-        <v>51.11153211342693</v>
+        <v>51.11153211342702</v>
       </c>
       <c r="U20" t="n">
-        <v>81.33265823027389</v>
+        <v>81.33265823027398</v>
       </c>
       <c r="V20" t="n">
         <v>162.6056566701461</v>
       </c>
       <c r="W20" t="n">
-        <v>187.905756148103</v>
+        <v>187.9057561481031</v>
       </c>
       <c r="X20" t="n">
-        <v>207.2060143808496</v>
+        <v>207.2060143808497</v>
       </c>
       <c r="Y20" t="n">
-        <v>218.6026121770483</v>
+        <v>218.6026121770484</v>
       </c>
     </row>
     <row r="21">
@@ -2163,13 +2163,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>117.4618285548013</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>45.65997552789522</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
         <v>127.4412149769483</v>
@@ -2178,7 +2178,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.71599030466402</v>
+        <v>10.7159903046641</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>40.56884027747731</v>
+        <v>40.56884027747739</v>
       </c>
       <c r="T22" t="n">
-        <v>59.84333895960594</v>
+        <v>59.84333895960603</v>
       </c>
       <c r="U22" t="n">
-        <v>113.3145124229191</v>
+        <v>113.3145124229192</v>
       </c>
       <c r="V22" t="n">
-        <v>87.12412670428961</v>
+        <v>87.12412670428969</v>
       </c>
       <c r="W22" t="n">
-        <v>112.2910127749029</v>
+        <v>112.291012774903</v>
       </c>
       <c r="X22" t="n">
-        <v>57.93611477070598</v>
+        <v>57.93611477070607</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.81098252677367</v>
+        <v>48.81098252677376</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>219.0992794299669</v>
+        <v>219.099279429967</v>
       </c>
       <c r="C23" t="n">
-        <v>207.1105963876487</v>
+        <v>207.1105963876488</v>
       </c>
       <c r="D23" t="n">
         <v>198.0919004321767</v>
       </c>
       <c r="E23" t="n">
-        <v>219.8340380020822</v>
+        <v>219.8340380020823</v>
       </c>
       <c r="F23" t="n">
         <v>239.0058540900594</v>
       </c>
       <c r="G23" t="n">
-        <v>240.9391219874819</v>
+        <v>240.939121987482</v>
       </c>
       <c r="H23" t="n">
-        <v>158.4892369657918</v>
+        <v>158.4892369657919</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0852021104199423</v>
+        <v>0.08520211042002757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.35286092307757</v>
+        <v>14.35286092307766</v>
       </c>
       <c r="T23" t="n">
-        <v>51.11153211342693</v>
+        <v>51.11153211342702</v>
       </c>
       <c r="U23" t="n">
-        <v>81.33265823027389</v>
+        <v>81.33265823027398</v>
       </c>
       <c r="V23" t="n">
         <v>162.6056566701461</v>
       </c>
       <c r="W23" t="n">
-        <v>187.905756148103</v>
+        <v>187.9057561481031</v>
       </c>
       <c r="X23" t="n">
-        <v>207.2060143808496</v>
+        <v>207.2060143808497</v>
       </c>
       <c r="Y23" t="n">
-        <v>218.6026121770483</v>
+        <v>218.6026121770484</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>39.19800413111547</v>
       </c>
       <c r="S24" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>99.11136825394544</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
         <v>216.3098444776729</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.71599030466402</v>
+        <v>10.7159903046641</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>40.56884027747731</v>
+        <v>40.56884027747739</v>
       </c>
       <c r="T25" t="n">
-        <v>59.84333895960594</v>
+        <v>59.84333895960603</v>
       </c>
       <c r="U25" t="n">
-        <v>113.3145124229191</v>
+        <v>113.3145124229192</v>
       </c>
       <c r="V25" t="n">
-        <v>87.12412670428961</v>
+        <v>87.12412670428969</v>
       </c>
       <c r="W25" t="n">
-        <v>112.2910127749029</v>
+        <v>112.291012774903</v>
       </c>
       <c r="X25" t="n">
-        <v>57.93611477070598</v>
+        <v>57.93611477070607</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.81098252677367</v>
+        <v>48.81098252677376</v>
       </c>
     </row>
     <row r="26">
@@ -2561,19 +2561,19 @@
         <v>255.6655596168399</v>
       </c>
       <c r="E26" t="n">
-        <v>277.4076971867455</v>
+        <v>277.4076971867454</v>
       </c>
       <c r="F26" t="n">
-        <v>295.8148125405741</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G26" t="n">
-        <v>298.5127811721451</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>216.0628961504551</v>
+        <v>196.4050411479444</v>
       </c>
       <c r="I26" t="n">
-        <v>57.65886129508321</v>
+        <v>57.65886129508317</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>71.9265201077408</v>
       </c>
       <c r="T26" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U26" t="n">
-        <v>138.9063174149372</v>
+        <v>138.9063174149371</v>
       </c>
       <c r="V26" t="n">
         <v>220.1793158548093</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X26" t="n">
         <v>264.7796735655128</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.1762713617116</v>
+        <v>276.1762713617115</v>
       </c>
     </row>
     <row r="27">
@@ -2637,7 +2637,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D27" t="n">
-        <v>122.8847593541863</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E27" t="n">
         <v>145.5577298436975</v>
@@ -2652,7 +2652,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133602</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.28964948932729</v>
+        <v>68.28964948932725</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472773</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230612</v>
       </c>
       <c r="E28" t="n">
-        <v>37.05875858808561</v>
+        <v>37.05875858808557</v>
       </c>
       <c r="F28" t="n">
-        <v>37.52568291627192</v>
+        <v>37.52568291627188</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563761971</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031013</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513948</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59639806355683</v>
+        <v>34.59639806355679</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214053</v>
       </c>
       <c r="T28" t="n">
         <v>117.4169981442692</v>
       </c>
       <c r="U28" t="n">
-        <v>170.8881716075824</v>
+        <v>170.8881716075823</v>
       </c>
       <c r="V28" t="n">
-        <v>144.6977858889529</v>
+        <v>144.6977858889528</v>
       </c>
       <c r="W28" t="n">
         <v>169.8646719595661</v>
       </c>
       <c r="X28" t="n">
-        <v>115.5097739553693</v>
+        <v>115.5097739553692</v>
       </c>
       <c r="Y28" t="n">
         <v>106.3846417114369</v>
@@ -2792,7 +2792,7 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C29" t="n">
-        <v>264.6842555723119</v>
+        <v>220.2353768431938</v>
       </c>
       <c r="D29" t="n">
         <v>255.6655596168399</v>
@@ -2801,16 +2801,16 @@
         <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
-        <v>296.5795132747226</v>
+        <v>296.5795132747227</v>
       </c>
       <c r="G29" t="n">
-        <v>298.5127811721451</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H29" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>57.6588612950832</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.92652010774083</v>
+        <v>71.92652010774086</v>
       </c>
       <c r="T29" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U29" t="n">
-        <v>138.9063174149371</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V29" t="n">
-        <v>147.4880950129203</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X29" t="n">
-        <v>264.7796735655128</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y29" t="n">
-        <v>276.1762713617116</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133602</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W30" t="n">
-        <v>224.3372187935193</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X30" t="n">
         <v>195.9378182409833</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.28964948932727</v>
+        <v>68.2896494893273</v>
       </c>
       <c r="C31" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472779</v>
       </c>
       <c r="D31" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230617</v>
       </c>
       <c r="E31" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808562</v>
       </c>
       <c r="F31" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627193</v>
       </c>
       <c r="G31" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761977</v>
       </c>
       <c r="H31" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031019</v>
       </c>
       <c r="I31" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513954</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355685</v>
       </c>
       <c r="S31" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214059</v>
       </c>
       <c r="T31" t="n">
         <v>117.4169981442692</v>
@@ -3010,13 +3010,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W31" t="n">
-        <v>169.8646719595661</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X31" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y31" t="n">
-        <v>106.3846417114369</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>248.4524160856739</v>
+        <v>248.452416085674</v>
       </c>
       <c r="C32" t="n">
-        <v>236.4637330433557</v>
+        <v>236.4637330433558</v>
       </c>
       <c r="D32" t="n">
-        <v>227.4450370878836</v>
+        <v>227.4450370878837</v>
       </c>
       <c r="E32" t="n">
-        <v>249.1871746577892</v>
+        <v>249.1871746577893</v>
       </c>
       <c r="F32" t="n">
-        <v>268.3589907457663</v>
+        <v>268.3589907457664</v>
       </c>
       <c r="G32" t="n">
-        <v>270.2922586431889</v>
+        <v>270.292258643189</v>
       </c>
       <c r="H32" t="n">
-        <v>187.8423736214988</v>
+        <v>187.8423736214989</v>
       </c>
       <c r="I32" t="n">
-        <v>29.43833876612692</v>
+        <v>29.43833876612703</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.70599757878455</v>
+        <v>43.70599757878466</v>
       </c>
       <c r="T32" t="n">
-        <v>80.46466876913391</v>
+        <v>80.46466876913402</v>
       </c>
       <c r="U32" t="n">
-        <v>110.6857948859809</v>
+        <v>110.685794885981</v>
       </c>
       <c r="V32" t="n">
-        <v>191.958793325853</v>
+        <v>191.9587933258532</v>
       </c>
       <c r="W32" t="n">
-        <v>217.2588928038099</v>
+        <v>217.2588928038101</v>
       </c>
       <c r="X32" t="n">
-        <v>236.5591510365566</v>
+        <v>236.5591510365567</v>
       </c>
       <c r="Y32" t="n">
-        <v>247.9557488327553</v>
+        <v>247.9557488327554</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133625</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3168,7 +3168,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W33" t="n">
-        <v>224.3372187935196</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X33" t="n">
         <v>195.9378182409833</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.06912696037099</v>
+        <v>40.06912696037111</v>
       </c>
       <c r="C34" t="n">
-        <v>26.26912180577148</v>
+        <v>26.26912180577159</v>
       </c>
       <c r="D34" t="n">
-        <v>9.890486203349866</v>
+        <v>9.89048620334998</v>
       </c>
       <c r="E34" t="n">
-        <v>8.838236059129315</v>
+        <v>8.838236059129429</v>
       </c>
       <c r="F34" t="n">
-        <v>9.305160387315624</v>
+        <v>9.305160387315738</v>
       </c>
       <c r="G34" t="n">
-        <v>25.57986310866346</v>
+        <v>25.57986310866357</v>
       </c>
       <c r="H34" t="n">
-        <v>16.12823073135388</v>
+        <v>16.12823073135399</v>
       </c>
       <c r="I34" t="n">
-        <v>1.110325916183228</v>
+        <v>1.110325916183342</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.375875534600539</v>
+        <v>6.375875534600652</v>
       </c>
       <c r="S34" t="n">
-        <v>69.92197693318428</v>
+        <v>69.9219769331844</v>
       </c>
       <c r="T34" t="n">
-        <v>89.19647561531292</v>
+        <v>89.19647561531303</v>
       </c>
       <c r="U34" t="n">
-        <v>142.6676490786261</v>
+        <v>142.6676490786262</v>
       </c>
       <c r="V34" t="n">
-        <v>116.4772633599966</v>
+        <v>116.4772633599967</v>
       </c>
       <c r="W34" t="n">
-        <v>141.6441494306098</v>
+        <v>141.64414943061</v>
       </c>
       <c r="X34" t="n">
-        <v>87.28925142641296</v>
+        <v>87.28925142641307</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.16411918248065</v>
+        <v>78.16411918248076</v>
       </c>
     </row>
     <row r="35">
@@ -3354,7 +3354,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>118.7813687841207</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
         <v>127.4412149769483</v>
@@ -3363,7 +3363,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>229.7437828235483</v>
+        <v>229.7437828235486</v>
       </c>
       <c r="C41" t="n">
-        <v>217.7550997812301</v>
+        <v>217.7550997812303</v>
       </c>
       <c r="D41" t="n">
-        <v>208.736403825758</v>
+        <v>208.7364038257583</v>
       </c>
       <c r="E41" t="n">
-        <v>230.4785413956636</v>
+        <v>230.4785413956638</v>
       </c>
       <c r="F41" t="n">
-        <v>249.6503574836407</v>
+        <v>249.650357483641</v>
       </c>
       <c r="G41" t="n">
-        <v>251.5836253810633</v>
+        <v>251.5836253810635</v>
       </c>
       <c r="H41" t="n">
-        <v>169.1337403593732</v>
+        <v>93.31728821587703</v>
       </c>
       <c r="I41" t="n">
-        <v>10.72970550400132</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>24.99736431665895</v>
+        <v>24.9973643166592</v>
       </c>
       <c r="T41" t="n">
-        <v>61.75603550700831</v>
+        <v>61.75603550700856</v>
       </c>
       <c r="U41" t="n">
-        <v>5.431003976360416</v>
+        <v>91.97716162385552</v>
       </c>
       <c r="V41" t="n">
-        <v>173.2501600637274</v>
+        <v>173.2501600637277</v>
       </c>
       <c r="W41" t="n">
-        <v>198.5502595416843</v>
+        <v>198.5502595416846</v>
       </c>
       <c r="X41" t="n">
-        <v>217.850517774431</v>
+        <v>217.8505177744312</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.2471155706297</v>
+        <v>229.24711557063</v>
       </c>
     </row>
     <row r="42">
@@ -3828,7 +3828,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>118.7813687841211</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
         <v>127.4412149769483</v>
@@ -3837,7 +3837,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.36049369824539</v>
+        <v>21.36049369824565</v>
       </c>
       <c r="C43" t="n">
-        <v>7.560488543645874</v>
+        <v>7.56048854364613</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.871229846537858</v>
+        <v>6.871229846538114</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>51.21334367105868</v>
+        <v>51.21334367105894</v>
       </c>
       <c r="T43" t="n">
-        <v>70.48784235318732</v>
+        <v>70.48784235318757</v>
       </c>
       <c r="U43" t="n">
-        <v>123.9590158165005</v>
+        <v>123.9590158165007</v>
       </c>
       <c r="V43" t="n">
-        <v>97.76863009787098</v>
+        <v>97.76863009787124</v>
       </c>
       <c r="W43" t="n">
-        <v>122.9355161684842</v>
+        <v>122.9355161684845</v>
       </c>
       <c r="X43" t="n">
-        <v>68.58061816428736</v>
+        <v>68.58061816428761</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.45548592035504</v>
+        <v>59.4554859203553</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>229.7437828235483</v>
+        <v>229.7437828235485</v>
       </c>
       <c r="C44" t="n">
-        <v>217.7550997812301</v>
+        <v>217.7550997812303</v>
       </c>
       <c r="D44" t="n">
-        <v>208.736403825758</v>
+        <v>208.7364038257582</v>
       </c>
       <c r="E44" t="n">
-        <v>230.4785413956636</v>
+        <v>230.4785413956638</v>
       </c>
       <c r="F44" t="n">
-        <v>249.6503574836407</v>
+        <v>249.6503574836409</v>
       </c>
       <c r="G44" t="n">
-        <v>251.5836253810633</v>
+        <v>251.5836253810635</v>
       </c>
       <c r="H44" t="n">
-        <v>169.1337403593732</v>
+        <v>169.1337403593734</v>
       </c>
       <c r="I44" t="n">
-        <v>10.72970550400132</v>
+        <v>10.72970550400152</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>24.99736431665895</v>
+        <v>24.99736431665914</v>
       </c>
       <c r="T44" t="n">
-        <v>61.75603550700831</v>
+        <v>61.75603550700851</v>
       </c>
       <c r="U44" t="n">
-        <v>91.97716162385527</v>
+        <v>91.97716162385547</v>
       </c>
       <c r="V44" t="n">
-        <v>173.2501600637274</v>
+        <v>173.2501600637276</v>
       </c>
       <c r="W44" t="n">
-        <v>112.0041018941895</v>
+        <v>198.5502595416845</v>
       </c>
       <c r="X44" t="n">
-        <v>217.850517774431</v>
+        <v>217.8505177744312</v>
       </c>
       <c r="Y44" t="n">
-        <v>229.2471155706297</v>
+        <v>142.7009579231326</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U45" t="n">
-        <v>201.7443531921696</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>21.36049369824539</v>
+        <v>21.36049369824559</v>
       </c>
       <c r="C46" t="n">
-        <v>7.560488543645874</v>
+        <v>7.560488543646073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>6.871229846537858</v>
+        <v>6.871229846538057</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>51.21334367105868</v>
+        <v>51.21334367105888</v>
       </c>
       <c r="T46" t="n">
-        <v>70.48784235318732</v>
+        <v>70.48784235318752</v>
       </c>
       <c r="U46" t="n">
-        <v>123.9590158165005</v>
+        <v>123.9590158165007</v>
       </c>
       <c r="V46" t="n">
-        <v>97.76863009787098</v>
+        <v>97.76863009787118</v>
       </c>
       <c r="W46" t="n">
-        <v>122.9355161684842</v>
+        <v>122.9355161684844</v>
       </c>
       <c r="X46" t="n">
-        <v>68.58061816428736</v>
+        <v>68.58061816428756</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.45548592035504</v>
+        <v>59.45548592035524</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>870.1121028532357</v>
+        <v>536.2205322044583</v>
       </c>
       <c r="C2" t="n">
-        <v>870.1121028532357</v>
+        <v>536.2205322044583</v>
       </c>
       <c r="D2" t="n">
-        <v>870.1121028532357</v>
+        <v>536.2205322044583</v>
       </c>
       <c r="E2" t="n">
-        <v>870.1121028532357</v>
+        <v>536.2205322044583</v>
       </c>
       <c r="F2" t="n">
-        <v>455.960912163406</v>
+        <v>526.1097455550328</v>
       </c>
       <c r="G2" t="n">
-        <v>39.85692561759403</v>
+        <v>514.0461630496247</v>
       </c>
       <c r="H2" t="n">
-        <v>39.85692561759403</v>
+        <v>212.6741244087981</v>
       </c>
       <c r="I2" t="n">
-        <v>39.85692561759403</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="J2" t="n">
         <v>111.8554698903997</v>
@@ -4334,46 +4334,46 @@
         <v>351.9958419351825</v>
       </c>
       <c r="L2" t="n">
-        <v>699.8812150201287</v>
+        <v>688.1142750100128</v>
       </c>
       <c r="M2" t="n">
-        <v>1093.120381273217</v>
+        <v>1081.353441263101</v>
       </c>
       <c r="N2" t="n">
-        <v>1365.252546264277</v>
+        <v>1459.684799950816</v>
       </c>
       <c r="O2" t="n">
-        <v>1670.257130737111</v>
+        <v>1764.68938442365</v>
       </c>
       <c r="P2" t="n">
-        <v>1898.414027193164</v>
+        <v>1992.846280879703</v>
       </c>
       <c r="Q2" t="n">
-        <v>1992.846280879701</v>
+        <v>1992.846280879703</v>
       </c>
       <c r="R2" t="n">
-        <v>1902.207994375555</v>
+        <v>1902.207994375557</v>
       </c>
       <c r="S2" t="n">
-        <v>1714.979019005909</v>
+        <v>1714.979019005911</v>
       </c>
       <c r="T2" t="n">
-        <v>1490.62007273692</v>
+        <v>1490.620072736922</v>
       </c>
       <c r="U2" t="n">
-        <v>1490.62007273692</v>
+        <v>1235.734736450916</v>
       </c>
       <c r="V2" t="n">
-        <v>1153.640798632861</v>
+        <v>898.7554623468573</v>
       </c>
       <c r="W2" t="n">
-        <v>1153.640798632861</v>
+        <v>536.2205322044583</v>
       </c>
       <c r="X2" t="n">
-        <v>1153.640798632861</v>
+        <v>536.2205322044583</v>
       </c>
       <c r="Y2" t="n">
-        <v>870.1121028532357</v>
+        <v>536.2205322044583</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>618.627376350805</v>
+        <v>722.0589008329837</v>
       </c>
       <c r="C3" t="n">
-        <v>618.627376350805</v>
+        <v>560.3552280739384</v>
       </c>
       <c r="D3" t="n">
-        <v>618.627376350805</v>
+        <v>421.5165910641504</v>
       </c>
       <c r="E3" t="n">
-        <v>471.5993664076761</v>
+        <v>274.4885811210216</v>
       </c>
       <c r="F3" t="n">
-        <v>336.9055683575505</v>
+        <v>139.794783070896</v>
       </c>
       <c r="G3" t="n">
-        <v>208.177068380835</v>
+        <v>139.794783070896</v>
       </c>
       <c r="H3" t="n">
-        <v>108.239210927533</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="I3" t="n">
-        <v>39.85692561759403</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="J3" t="n">
-        <v>39.85692561759403</v>
+        <v>100.1110721507002</v>
       </c>
       <c r="K3" t="n">
-        <v>269.3474781777827</v>
+        <v>329.6016247108889</v>
       </c>
       <c r="L3" t="n">
-        <v>635.1693233478984</v>
+        <v>695.4234698810045</v>
       </c>
       <c r="M3" t="n">
-        <v>647.549326516533</v>
+        <v>1180.456823391231</v>
       </c>
       <c r="N3" t="n">
-        <v>1140.778781034259</v>
+        <v>1442.874700309958</v>
       </c>
       <c r="O3" t="n">
-        <v>1532.97873181841</v>
+        <v>1835.074651094109</v>
       </c>
       <c r="P3" t="n">
-        <v>1835.074651094107</v>
+        <v>1835.074651094109</v>
       </c>
       <c r="Q3" t="n">
-        <v>1992.846280879701</v>
+        <v>1992.846280879703</v>
       </c>
       <c r="R3" t="n">
-        <v>1933.062011974647</v>
+        <v>1933.062011974649</v>
       </c>
       <c r="S3" t="n">
-        <v>1780.262524987387</v>
+        <v>1780.262524987389</v>
       </c>
       <c r="T3" t="n">
-        <v>1780.262524987387</v>
+        <v>1591.577421153374</v>
       </c>
       <c r="U3" t="n">
-        <v>1561.767732585698</v>
+        <v>1582.208706623966</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.801002371382</v>
+        <v>1353.8130840723</v>
       </c>
       <c r="W3" t="n">
-        <v>1168.485133604692</v>
+        <v>1112.49721530561</v>
       </c>
       <c r="X3" t="n">
-        <v>970.568145482487</v>
+        <v>914.5802271834049</v>
       </c>
       <c r="Y3" t="n">
-        <v>778.0468191320658</v>
+        <v>722.0589008329837</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4462,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>349.8810120558036</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="C4" t="n">
-        <v>349.8810120558036</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="D4" t="n">
-        <v>349.8810120558036</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="E4" t="n">
-        <v>349.8810120558036</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="F4" t="n">
-        <v>208.776674249744</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="G4" t="n">
-        <v>39.85692561759403</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="H4" t="n">
-        <v>39.85692561759403</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="I4" t="n">
-        <v>39.85692561759403</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="J4" t="n">
-        <v>39.85692561759403</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="K4" t="n">
-        <v>73.46111336223744</v>
+        <v>73.46111336223748</v>
       </c>
       <c r="L4" t="n">
-        <v>174.0681927624969</v>
+        <v>174.068192762497</v>
       </c>
       <c r="M4" t="n">
         <v>292.0616988900987</v>
@@ -4501,7 +4501,7 @@
         <v>410.4840406396991</v>
       </c>
       <c r="O4" t="n">
-        <v>508.9476871353887</v>
+        <v>508.9476871353888</v>
       </c>
       <c r="P4" t="n">
         <v>571.9161708635265</v>
@@ -4519,19 +4519,19 @@
         <v>571.9161708635265</v>
       </c>
       <c r="U4" t="n">
-        <v>571.9161708635265</v>
+        <v>300.5922300591715</v>
       </c>
       <c r="V4" t="n">
-        <v>571.9161708635265</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="W4" t="n">
-        <v>571.9161708635265</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="X4" t="n">
-        <v>571.9161708635265</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="Y4" t="n">
-        <v>349.8810120558036</v>
+        <v>39.85692561759407</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>253.3481763998723</v>
+        <v>1153.640798632863</v>
       </c>
       <c r="C5" t="n">
-        <v>234.8484935636316</v>
+        <v>771.7070399656704</v>
       </c>
       <c r="D5" t="n">
-        <v>234.8484935636316</v>
+        <v>398.883075192894</v>
       </c>
       <c r="E5" t="n">
-        <v>234.8484935636316</v>
+        <v>62.03129477242764</v>
       </c>
       <c r="F5" t="n">
-        <v>224.737706914206</v>
+        <v>51.92050812300203</v>
       </c>
       <c r="G5" t="n">
-        <v>212.674124408798</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="H5" t="n">
-        <v>212.674124408798</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="I5" t="n">
-        <v>39.85692561759403</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="J5" t="n">
         <v>111.8554698903997</v>
@@ -4571,46 +4571,46 @@
         <v>351.9958419351825</v>
       </c>
       <c r="L5" t="n">
-        <v>699.8812150201287</v>
+        <v>699.8812150201288</v>
       </c>
       <c r="M5" t="n">
-        <v>1093.120381273217</v>
+        <v>986.9211875765636</v>
       </c>
       <c r="N5" t="n">
-        <v>1471.451739960932</v>
+        <v>1365.252546264279</v>
       </c>
       <c r="O5" t="n">
-        <v>1776.456324433766</v>
+        <v>1670.257130737113</v>
       </c>
       <c r="P5" t="n">
-        <v>1898.414027193164</v>
+        <v>1898.414027193166</v>
       </c>
       <c r="Q5" t="n">
-        <v>1992.846280879701</v>
+        <v>1992.846280879703</v>
       </c>
       <c r="R5" t="n">
-        <v>1902.207994375555</v>
+        <v>1902.207994375557</v>
       </c>
       <c r="S5" t="n">
-        <v>1902.207994375555</v>
+        <v>1714.979019005911</v>
       </c>
       <c r="T5" t="n">
-        <v>1677.849048106566</v>
+        <v>1490.620072736922</v>
       </c>
       <c r="U5" t="n">
-        <v>1422.96371182056</v>
+        <v>1490.620072736922</v>
       </c>
       <c r="V5" t="n">
-        <v>1422.96371182056</v>
+        <v>1153.640798632863</v>
       </c>
       <c r="W5" t="n">
-        <v>1422.96371182056</v>
+        <v>1153.640798632863</v>
       </c>
       <c r="X5" t="n">
-        <v>1040.933571342053</v>
+        <v>1153.640798632863</v>
       </c>
       <c r="Y5" t="n">
-        <v>647.3917159178915</v>
+        <v>1153.640798632863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>750.8495433563971</v>
+        <v>680.3931916565482</v>
       </c>
       <c r="C6" t="n">
-        <v>589.1458705973519</v>
+        <v>518.6895188975029</v>
       </c>
       <c r="D6" t="n">
-        <v>450.3072335875639</v>
+        <v>518.6895188975029</v>
       </c>
       <c r="E6" t="n">
-        <v>303.2792236444351</v>
+        <v>371.6615089543741</v>
       </c>
       <c r="F6" t="n">
-        <v>168.5854255943095</v>
+        <v>236.9677109042485</v>
       </c>
       <c r="G6" t="n">
-        <v>39.85692561759403</v>
+        <v>108.2392109275331</v>
       </c>
       <c r="H6" t="n">
-        <v>39.85692561759403</v>
+        <v>108.2392109275331</v>
       </c>
       <c r="I6" t="n">
-        <v>39.85692561759403</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="J6" t="n">
         <v>100.1110721507002</v>
       </c>
       <c r="K6" t="n">
-        <v>329.6016247108888</v>
+        <v>329.6016247108889</v>
       </c>
       <c r="L6" t="n">
-        <v>695.4234698810044</v>
+        <v>695.4234698810045</v>
       </c>
       <c r="M6" t="n">
         <v>1180.456823391231</v>
       </c>
       <c r="N6" t="n">
-        <v>1673.686277908957</v>
+        <v>1180.456823391231</v>
       </c>
       <c r="O6" t="n">
-        <v>1992.846280879701</v>
+        <v>1532.978731818412</v>
       </c>
       <c r="P6" t="n">
-        <v>1992.846280879701</v>
+        <v>1835.074651094109</v>
       </c>
       <c r="Q6" t="n">
-        <v>1992.846280879701</v>
+        <v>1992.846280879703</v>
       </c>
       <c r="R6" t="n">
-        <v>1992.846280879701</v>
+        <v>1933.062011974649</v>
       </c>
       <c r="S6" t="n">
-        <v>1992.846280879701</v>
+        <v>1780.262524987389</v>
       </c>
       <c r="T6" t="n">
-        <v>1804.161177045687</v>
+        <v>1591.577421153374</v>
       </c>
       <c r="U6" t="n">
-        <v>1585.666384643997</v>
+        <v>1373.082628751685</v>
       </c>
       <c r="V6" t="n">
-        <v>1357.270762092331</v>
+        <v>1144.687006200018</v>
       </c>
       <c r="W6" t="n">
-        <v>1115.954893325641</v>
+        <v>1144.687006200018</v>
       </c>
       <c r="X6" t="n">
-        <v>943.3708697068183</v>
+        <v>946.770018077813</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.8495433563971</v>
+        <v>839.812634437809</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4699,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.85692561759403</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="C7" t="n">
-        <v>39.85692561759403</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="D7" t="n">
-        <v>39.85692561759403</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="E7" t="n">
-        <v>39.85692561759403</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="F7" t="n">
-        <v>39.85692561759403</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="G7" t="n">
-        <v>39.85692561759403</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="H7" t="n">
-        <v>39.85692561759403</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="I7" t="n">
-        <v>39.85692561759403</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="J7" t="n">
-        <v>39.85692561759403</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="K7" t="n">
-        <v>73.46111336223744</v>
+        <v>73.46111336223748</v>
       </c>
       <c r="L7" t="n">
-        <v>174.0681927624969</v>
+        <v>174.068192762497</v>
       </c>
       <c r="M7" t="n">
         <v>292.0616988900987</v>
@@ -4738,7 +4738,7 @@
         <v>410.4840406396991</v>
       </c>
       <c r="O7" t="n">
-        <v>508.9476871353887</v>
+        <v>508.9476871353888</v>
       </c>
       <c r="P7" t="n">
         <v>571.9161708635265</v>
@@ -4756,19 +4756,19 @@
         <v>571.9161708635265</v>
       </c>
       <c r="U7" t="n">
-        <v>300.5922300591714</v>
+        <v>548.0484859079179</v>
       </c>
       <c r="V7" t="n">
-        <v>39.85692561759403</v>
+        <v>548.0484859079179</v>
       </c>
       <c r="W7" t="n">
-        <v>39.85692561759403</v>
+        <v>261.892084425317</v>
       </c>
       <c r="X7" t="n">
-        <v>39.85692561759403</v>
+        <v>261.892084425317</v>
       </c>
       <c r="Y7" t="n">
-        <v>39.85692561759403</v>
+        <v>39.85692561759407</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2021.822876670703</v>
+        <v>964.6228183438207</v>
       </c>
       <c r="C8" t="n">
-        <v>1639.88911800351</v>
+        <v>964.6228183438207</v>
       </c>
       <c r="D8" t="n">
-        <v>1267.065153230734</v>
+        <v>964.6228183438207</v>
       </c>
       <c r="E8" t="n">
-        <v>872.2794333368408</v>
+        <v>569.8370984499275</v>
       </c>
       <c r="F8" t="n">
-        <v>458.1282426470112</v>
+        <v>559.7263118005019</v>
       </c>
       <c r="G8" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H8" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4835,19 +4835,19 @@
         <v>2101.212805059961</v>
       </c>
       <c r="U8" t="n">
-        <v>2101.212805059961</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="V8" t="n">
-        <v>2101.212805059961</v>
+        <v>1509.348194669897</v>
       </c>
       <c r="W8" t="n">
-        <v>2101.212805059961</v>
+        <v>1146.813264527498</v>
       </c>
       <c r="X8" t="n">
-        <v>2101.212805059961</v>
+        <v>964.6228183438207</v>
       </c>
       <c r="Y8" t="n">
-        <v>2101.212805059961</v>
+        <v>964.6228183438207</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>489.5945758131612</v>
+        <v>621.2993471409599</v>
       </c>
       <c r="C9" t="n">
-        <v>327.8909030541159</v>
+        <v>459.5956743819146</v>
       </c>
       <c r="D9" t="n">
-        <v>189.052266044328</v>
+        <v>320.7570373721267</v>
       </c>
       <c r="E9" t="n">
-        <v>42.02425610119923</v>
+        <v>320.7570373721267</v>
       </c>
       <c r="F9" t="n">
-        <v>42.02425610119923</v>
+        <v>186.063239322001</v>
       </c>
       <c r="G9" t="n">
-        <v>42.02425610119923</v>
+        <v>57.33473934528558</v>
       </c>
       <c r="H9" t="n">
         <v>42.02425610119923</v>
@@ -4896,10 +4896,10 @@
         <v>1693.889799997958</v>
       </c>
       <c r="O9" t="n">
-        <v>2086.089750782109</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4923,10 +4923,10 @@
         <v>1011.737661613587</v>
       </c>
       <c r="X9" t="n">
-        <v>841.5353449448434</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y9" t="n">
-        <v>649.0140185944222</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>404.4675318088119</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>404.4675318088119</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>404.4675318088119</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>404.4675318088119</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>404.4675318088119</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
-        <v>245.0948865880858</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4984,28 +4984,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>163.8264155199325</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1156.937058418937</v>
+        <v>1083.074127919061</v>
       </c>
       <c r="C11" t="n">
-        <v>889.5792245075107</v>
+        <v>868.9420049333615</v>
       </c>
       <c r="D11" t="n">
-        <v>631.3311844905007</v>
+        <v>868.9420049333615</v>
       </c>
       <c r="E11" t="n">
-        <v>351.1213893523741</v>
+        <v>868.9420049333615</v>
       </c>
       <c r="F11" t="n">
-        <v>351.1213893523741</v>
+        <v>569.3667389992983</v>
       </c>
       <c r="G11" t="n">
-        <v>49.59332756232847</v>
+        <v>267.8386772092528</v>
       </c>
       <c r="H11" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="I11" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J11" t="n">
-        <v>233.8877356882608</v>
+        <v>121.5918718351342</v>
       </c>
       <c r="K11" t="n">
-        <v>474.0281077330435</v>
+        <v>395.7291539158702</v>
       </c>
       <c r="L11" t="n">
-        <v>821.9134808179897</v>
+        <v>743.6145270008165</v>
       </c>
       <c r="M11" t="n">
-        <v>1215.152647071078</v>
+        <v>1249.149557107031</v>
       </c>
       <c r="N11" t="n">
-        <v>1593.484005758793</v>
+        <v>1627.480915794747</v>
       </c>
       <c r="O11" t="n">
-        <v>2010.784454084754</v>
+        <v>2044.781364120707</v>
       </c>
       <c r="P11" t="n">
-        <v>2351.237214393934</v>
+        <v>2385.234124429887</v>
       </c>
       <c r="Q11" t="n">
-        <v>2479.666378116423</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="R11" t="n">
-        <v>2479.666378116423</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="S11" t="n">
-        <v>2479.666378116423</v>
+        <v>2407.013327502545</v>
       </c>
       <c r="T11" t="n">
-        <v>2479.666378116423</v>
+        <v>2297.230305989322</v>
       </c>
       <c r="U11" t="n">
-        <v>2453.18717430725</v>
+        <v>2156.920894459082</v>
       </c>
       <c r="V11" t="n">
-        <v>2230.783824958958</v>
+        <v>2156.920894459082</v>
       </c>
       <c r="W11" t="n">
-        <v>1982.824819572325</v>
+        <v>1908.96188907245</v>
       </c>
       <c r="X11" t="n">
-        <v>1715.370603849585</v>
+        <v>1641.50767334971</v>
       </c>
       <c r="Y11" t="n">
-        <v>1436.40467318119</v>
+        <v>1362.541742681314</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>928.9060880643725</v>
+        <v>840.3334774161622</v>
       </c>
       <c r="C12" t="n">
-        <v>767.2024153053272</v>
+        <v>678.6298046571169</v>
       </c>
       <c r="D12" t="n">
-        <v>628.3637782955393</v>
+        <v>539.791167647329</v>
       </c>
       <c r="E12" t="n">
-        <v>481.3357683524106</v>
+        <v>392.7631577042002</v>
       </c>
       <c r="F12" t="n">
-        <v>346.6419703022849</v>
+        <v>258.0693596540746</v>
       </c>
       <c r="G12" t="n">
-        <v>217.9134703255694</v>
+        <v>129.3408596773591</v>
       </c>
       <c r="H12" t="n">
-        <v>117.9756128722675</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="I12" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J12" t="n">
         <v>109.8474740954346</v>
@@ -5133,37 +5133,37 @@
         <v>1701.458871459088</v>
       </c>
       <c r="O12" t="n">
-        <v>2019.798829055132</v>
+        <v>2093.658822243239</v>
       </c>
       <c r="P12" t="n">
-        <v>2321.894748330829</v>
+        <v>2321.89474833083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2479.666378116423</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="R12" t="n">
-        <v>2479.666378116423</v>
+        <v>2419.88210921137</v>
       </c>
       <c r="S12" t="n">
-        <v>2326.866891129164</v>
+        <v>2267.08262222411</v>
       </c>
       <c r="T12" t="n">
-        <v>2166.970129038306</v>
+        <v>2078.397518390096</v>
       </c>
       <c r="U12" t="n">
-        <v>1948.475336636616</v>
+        <v>1859.902725988406</v>
       </c>
       <c r="V12" t="n">
-        <v>1720.07971408495</v>
+        <v>1631.50710343674</v>
       </c>
       <c r="W12" t="n">
-        <v>1478.76384531826</v>
+        <v>1390.19123467005</v>
       </c>
       <c r="X12" t="n">
-        <v>1280.846857196055</v>
+        <v>1192.274246547844</v>
       </c>
       <c r="Y12" t="n">
-        <v>1088.325530845633</v>
+        <v>999.7529201974231</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>347.2348244456229</v>
+        <v>347.2348244456225</v>
       </c>
       <c r="C13" t="n">
-        <v>292.1947796630696</v>
+        <v>292.1947796630691</v>
       </c>
       <c r="D13" t="n">
-        <v>253.6988112465982</v>
+        <v>253.6988112465983</v>
       </c>
       <c r="E13" t="n">
-        <v>216.2657217636834</v>
+        <v>216.2657217636836</v>
       </c>
       <c r="F13" t="n">
-        <v>178.3609915452269</v>
+        <v>178.3609915452271</v>
       </c>
       <c r="G13" t="n">
         <v>124.0171676688433</v>
       </c>
       <c r="H13" t="n">
-        <v>79.22044720388354</v>
+        <v>79.22044720388357</v>
       </c>
       <c r="I13" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J13" t="n">
         <v>103.0270918774858</v>
@@ -5227,22 +5227,22 @@
         <v>1249.307241371384</v>
       </c>
       <c r="T13" t="n">
-        <v>1130.70421294283</v>
+        <v>1130.704212942829</v>
       </c>
       <c r="U13" t="n">
-        <v>958.0898981876961</v>
+        <v>958.0898981876957</v>
       </c>
       <c r="V13" t="n">
-        <v>811.9305185018851</v>
+        <v>811.9305185018848</v>
       </c>
       <c r="W13" t="n">
-        <v>640.3500417750506</v>
+        <v>640.3500417750503</v>
       </c>
       <c r="X13" t="n">
-        <v>523.6735024261928</v>
+        <v>523.6735024261924</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.2142683742363</v>
+        <v>416.2142683742359</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>934.9685373162479</v>
+        <v>860.670778570769</v>
       </c>
       <c r="C14" t="n">
-        <v>667.6107034048217</v>
+        <v>607.4166335134017</v>
       </c>
       <c r="D14" t="n">
-        <v>409.3626633878117</v>
+        <v>349.1685934963918</v>
       </c>
       <c r="E14" t="n">
-        <v>409.3626633878117</v>
+        <v>349.1685934963918</v>
       </c>
       <c r="F14" t="n">
-        <v>409.3626633878117</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="G14" t="n">
-        <v>107.834601597766</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="H14" t="n">
-        <v>107.834601597766</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="I14" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J14" t="n">
-        <v>121.5918718351341</v>
+        <v>121.5918718351342</v>
       </c>
       <c r="K14" t="n">
         <v>474.0281077330436</v>
       </c>
       <c r="L14" t="n">
-        <v>821.9134808179899</v>
+        <v>934.2093446711165</v>
       </c>
       <c r="M14" t="n">
-        <v>1215.152647071078</v>
+        <v>1439.744374777331</v>
       </c>
       <c r="N14" t="n">
-        <v>1705.77986961192</v>
+        <v>1852.072643501</v>
       </c>
       <c r="O14" t="n">
-        <v>2010.784454084754</v>
+        <v>2157.077227973834</v>
       </c>
       <c r="P14" t="n">
-        <v>2249.476981326347</v>
+        <v>2385.234124429887</v>
       </c>
       <c r="Q14" t="n">
-        <v>2456.205098866011</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="R14" t="n">
-        <v>2479.666378116423</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="S14" t="n">
-        <v>2479.666378116423</v>
+        <v>2407.013327502545</v>
       </c>
       <c r="T14" t="n">
-        <v>2369.883356603201</v>
+        <v>2297.230305989322</v>
       </c>
       <c r="U14" t="n">
-        <v>2229.573945072961</v>
+        <v>2156.920894459082</v>
       </c>
       <c r="V14" t="n">
-        <v>2007.170595724669</v>
+        <v>1934.51754511079</v>
       </c>
       <c r="W14" t="n">
-        <v>1759.211590338036</v>
+        <v>1686.558539724158</v>
       </c>
       <c r="X14" t="n">
-        <v>1491.757374615296</v>
+        <v>1419.104324001417</v>
       </c>
       <c r="Y14" t="n">
-        <v>1214.436152078501</v>
+        <v>1140.138393333022</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>928.9060880643725</v>
+        <v>860.5238027544336</v>
       </c>
       <c r="C15" t="n">
-        <v>767.2024153053272</v>
+        <v>698.8201299953884</v>
       </c>
       <c r="D15" t="n">
-        <v>628.3637782955393</v>
+        <v>559.9814929856004</v>
       </c>
       <c r="E15" t="n">
-        <v>481.3357683524106</v>
+        <v>412.9534830424716</v>
       </c>
       <c r="F15" t="n">
-        <v>346.6419703022849</v>
+        <v>278.2596849923459</v>
       </c>
       <c r="G15" t="n">
-        <v>217.9134703255694</v>
+        <v>149.5311850156305</v>
       </c>
       <c r="H15" t="n">
-        <v>117.9756128722675</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="I15" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J15" t="n">
         <v>109.8474740954346</v>
@@ -5370,37 +5370,37 @@
         <v>1701.458871459088</v>
       </c>
       <c r="O15" t="n">
-        <v>2093.658822243239</v>
+        <v>2019.798829055133</v>
       </c>
       <c r="P15" t="n">
-        <v>2321.894748330829</v>
+        <v>2321.89474833083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2479.666378116423</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="R15" t="n">
-        <v>2419.882109211369</v>
+        <v>2440.072434549641</v>
       </c>
       <c r="S15" t="n">
-        <v>2267.082622224109</v>
+        <v>2287.272947562381</v>
       </c>
       <c r="T15" t="n">
-        <v>2166.970129038306</v>
+        <v>2098.587843728367</v>
       </c>
       <c r="U15" t="n">
-        <v>1948.475336636616</v>
+        <v>1880.093051326677</v>
       </c>
       <c r="V15" t="n">
-        <v>1720.07971408495</v>
+        <v>1651.697428775011</v>
       </c>
       <c r="W15" t="n">
-        <v>1478.76384531826</v>
+        <v>1410.381560008321</v>
       </c>
       <c r="X15" t="n">
-        <v>1280.846857196055</v>
+        <v>1212.464571886116</v>
       </c>
       <c r="Y15" t="n">
-        <v>1088.325530845633</v>
+        <v>1019.943245535695</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>347.2348244456218</v>
+        <v>347.234824445622</v>
       </c>
       <c r="C16" t="n">
-        <v>292.194779663069</v>
+        <v>292.1947796630687</v>
       </c>
       <c r="D16" t="n">
-        <v>253.6988112465981</v>
+        <v>253.6988112465979</v>
       </c>
       <c r="E16" t="n">
-        <v>216.2657217636834</v>
+        <v>216.2657217636831</v>
       </c>
       <c r="F16" t="n">
-        <v>178.360991545227</v>
+        <v>178.3609915452266</v>
       </c>
       <c r="G16" t="n">
-        <v>124.0171676688434</v>
+        <v>124.0171676688431</v>
       </c>
       <c r="H16" t="n">
-        <v>79.22044720388357</v>
+        <v>79.22044720388311</v>
       </c>
       <c r="I16" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J16" t="n">
-        <v>103.027091877486</v>
+        <v>103.0270918774858</v>
       </c>
       <c r="K16" t="n">
-        <v>248.9271434752555</v>
+        <v>248.9271434752559</v>
       </c>
       <c r="L16" t="n">
-        <v>461.8300867286413</v>
+        <v>461.8300867286418</v>
       </c>
       <c r="M16" t="n">
-        <v>692.1194567093696</v>
+        <v>692.1194567093701</v>
       </c>
       <c r="N16" t="n">
-        <v>922.8376623120967</v>
+        <v>922.8376623120973</v>
       </c>
       <c r="O16" t="n">
         <v>1133.597172660913</v>
       </c>
       <c r="P16" t="n">
-        <v>1308.861520242177</v>
+        <v>1308.861520242178</v>
       </c>
       <c r="Q16" t="n">
         <v>1383.386935841785</v>
       </c>
       <c r="R16" t="n">
-        <v>1348.441079211929</v>
+        <v>1348.44107921193</v>
       </c>
       <c r="S16" t="n">
-        <v>1249.307241371383</v>
+        <v>1249.307241371384</v>
       </c>
       <c r="T16" t="n">
         <v>1130.704212942829</v>
       </c>
       <c r="U16" t="n">
-        <v>958.089898187695</v>
+        <v>958.0898981876953</v>
       </c>
       <c r="V16" t="n">
-        <v>811.930518501884</v>
+        <v>811.9305185018843</v>
       </c>
       <c r="W16" t="n">
-        <v>640.3500417750495</v>
+        <v>640.3500417750498</v>
       </c>
       <c r="X16" t="n">
-        <v>523.6735024261916</v>
+        <v>523.673502426192</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.2142683742352</v>
+        <v>416.2142683742354</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1325.912468951885</v>
+        <v>1325.912468951886</v>
       </c>
       <c r="C17" t="n">
-        <v>1116.709846338098</v>
+        <v>1116.709846338099</v>
       </c>
       <c r="D17" t="n">
-        <v>916.6170176187277</v>
+        <v>916.6170176187291</v>
       </c>
       <c r="E17" t="n">
-        <v>694.5624337782406</v>
+        <v>694.5624337782419</v>
       </c>
       <c r="F17" t="n">
-        <v>453.1423791418169</v>
+        <v>453.1423791418182</v>
       </c>
       <c r="G17" t="n">
-        <v>209.769528649411</v>
+        <v>209.7695286494112</v>
       </c>
       <c r="H17" t="n">
-        <v>49.67939030012639</v>
+        <v>49.6793903001265</v>
       </c>
       <c r="I17" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J17" t="n">
-        <v>242.7233851412944</v>
+        <v>121.5918718351342</v>
       </c>
       <c r="K17" t="n">
-        <v>482.8637571860771</v>
+        <v>361.732243879917</v>
       </c>
       <c r="L17" t="n">
-        <v>1000.042916716967</v>
+        <v>709.6176169648631</v>
       </c>
       <c r="M17" t="n">
-        <v>1393.282082970054</v>
+        <v>1272.150569663894</v>
       </c>
       <c r="N17" t="n">
-        <v>1771.61344165777</v>
+        <v>1650.48192835161</v>
       </c>
       <c r="O17" t="n">
-        <v>2076.618026130604</v>
+        <v>1955.486512824444</v>
       </c>
       <c r="P17" t="n">
-        <v>2304.774922586657</v>
+        <v>2352.93719572644</v>
       </c>
       <c r="Q17" t="n">
-        <v>2399.207176273194</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="R17" t="n">
-        <v>2479.666378116423</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.168538800183</v>
+        <v>2465.168538800184</v>
       </c>
       <c r="T17" t="n">
-        <v>2413.5407285846</v>
+        <v>2413.540728584601</v>
       </c>
       <c r="U17" t="n">
-        <v>2331.386528352</v>
+        <v>2331.386528352001</v>
       </c>
       <c r="V17" t="n">
         <v>2167.138390301348</v>
       </c>
       <c r="W17" t="n">
-        <v>1977.334596212355</v>
+        <v>1977.334596212356</v>
       </c>
       <c r="X17" t="n">
-        <v>1768.035591787254</v>
+        <v>1768.035591787255</v>
       </c>
       <c r="Y17" t="n">
-        <v>1547.224872416498</v>
+        <v>1547.224872416499</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>928.9060880643725</v>
+        <v>840.3334774161622</v>
       </c>
       <c r="C18" t="n">
-        <v>767.2024153053272</v>
+        <v>678.6298046571169</v>
       </c>
       <c r="D18" t="n">
-        <v>628.3637782955393</v>
+        <v>539.791167647329</v>
       </c>
       <c r="E18" t="n">
-        <v>481.3357683524106</v>
+        <v>392.7631577042002</v>
       </c>
       <c r="F18" t="n">
-        <v>346.6419703022849</v>
+        <v>278.2596849923459</v>
       </c>
       <c r="G18" t="n">
-        <v>217.9134703255694</v>
+        <v>149.5311850156305</v>
       </c>
       <c r="H18" t="n">
-        <v>117.9756128722675</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="I18" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J18" t="n">
         <v>109.8474740954346</v>
@@ -5610,34 +5610,34 @@
         <v>2093.658822243239</v>
       </c>
       <c r="P18" t="n">
-        <v>2395.754741518936</v>
+        <v>2321.89474833083</v>
       </c>
       <c r="Q18" t="n">
-        <v>2479.666378116423</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="R18" t="n">
-        <v>2419.882109211369</v>
+        <v>2419.88210921137</v>
       </c>
       <c r="S18" t="n">
-        <v>2355.655232872321</v>
+        <v>2267.08262222411</v>
       </c>
       <c r="T18" t="n">
-        <v>2166.970129038306</v>
+        <v>2078.397518390096</v>
       </c>
       <c r="U18" t="n">
-        <v>1948.475336636616</v>
+        <v>1859.902725988406</v>
       </c>
       <c r="V18" t="n">
-        <v>1720.07971408495</v>
+        <v>1631.50710343674</v>
       </c>
       <c r="W18" t="n">
-        <v>1478.76384531826</v>
+        <v>1390.19123467005</v>
       </c>
       <c r="X18" t="n">
-        <v>1280.846857196055</v>
+        <v>1192.274246547844</v>
       </c>
       <c r="Y18" t="n">
-        <v>1088.325530845633</v>
+        <v>999.7529201974231</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="C19" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="D19" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="E19" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="F19" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="G19" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="H19" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="I19" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J19" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="K19" t="n">
-        <v>83.19751530697188</v>
+        <v>83.19751530697189</v>
       </c>
       <c r="L19" t="n">
         <v>183.8045947072314</v>
@@ -5683,40 +5683,40 @@
         <v>301.7981008348331</v>
       </c>
       <c r="N19" t="n">
-        <v>424.1257617236913</v>
+        <v>424.1257617236921</v>
       </c>
       <c r="O19" t="n">
-        <v>522.589408219381</v>
+        <v>522.5894082193818</v>
       </c>
       <c r="P19" t="n">
-        <v>585.5578919475188</v>
+        <v>585.5578919475196</v>
       </c>
       <c r="Q19" t="n">
-        <v>585.5578919475188</v>
+        <v>585.5578919475196</v>
       </c>
       <c r="R19" t="n">
-        <v>585.5578919475188</v>
+        <v>585.5578919475196</v>
       </c>
       <c r="S19" t="n">
-        <v>544.5792654046124</v>
+        <v>544.5792654046131</v>
       </c>
       <c r="T19" t="n">
-        <v>484.1314482736974</v>
+        <v>484.131448273698</v>
       </c>
       <c r="U19" t="n">
-        <v>369.6723448162033</v>
+        <v>369.6723448162039</v>
       </c>
       <c r="V19" t="n">
-        <v>281.668176428032</v>
+        <v>281.6681764280324</v>
       </c>
       <c r="W19" t="n">
-        <v>168.2429109988372</v>
+        <v>168.2429109988375</v>
       </c>
       <c r="X19" t="n">
-        <v>109.7215829476191</v>
+        <v>109.7215829476193</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.41756019330222</v>
+        <v>60.41756019330234</v>
       </c>
     </row>
     <row r="20">
@@ -5732,49 +5732,49 @@
         <v>1116.709846338099</v>
       </c>
       <c r="D20" t="n">
-        <v>916.6170176187291</v>
+        <v>916.6170176187281</v>
       </c>
       <c r="E20" t="n">
-        <v>694.5624337782422</v>
+        <v>694.562433778241</v>
       </c>
       <c r="F20" t="n">
-        <v>453.1423791418185</v>
+        <v>453.1423791418173</v>
       </c>
       <c r="G20" t="n">
-        <v>209.7695286494127</v>
+        <v>209.7695286494113</v>
       </c>
       <c r="H20" t="n">
-        <v>49.67939030012866</v>
+        <v>49.6793903001265</v>
       </c>
       <c r="I20" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J20" t="n">
-        <v>121.5918718351341</v>
+        <v>121.5918718351342</v>
       </c>
       <c r="K20" t="n">
-        <v>531.0260303258602</v>
+        <v>531.0260303258601</v>
       </c>
       <c r="L20" t="n">
-        <v>878.9114034108065</v>
+        <v>911.2083321142534</v>
       </c>
       <c r="M20" t="n">
-        <v>1304.44749836734</v>
+        <v>1304.447498367341</v>
       </c>
       <c r="N20" t="n">
-        <v>1682.778857055056</v>
+        <v>1682.778857055057</v>
       </c>
       <c r="O20" t="n">
-        <v>1987.78344152789</v>
+        <v>1987.783441527891</v>
       </c>
       <c r="P20" t="n">
-        <v>2385.234124429886</v>
+        <v>2385.234124429887</v>
       </c>
       <c r="Q20" t="n">
-        <v>2479.666378116423</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="R20" t="n">
-        <v>2479.666378116423</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="S20" t="n">
         <v>2465.168538800184</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>840.3334774161613</v>
+        <v>840.3334774161622</v>
       </c>
       <c r="C21" t="n">
-        <v>678.629804657116</v>
+        <v>678.6298046571169</v>
       </c>
       <c r="D21" t="n">
-        <v>539.7911676473281</v>
+        <v>559.9814929856004</v>
       </c>
       <c r="E21" t="n">
-        <v>392.7631577041993</v>
+        <v>412.9534830424716</v>
       </c>
       <c r="F21" t="n">
-        <v>346.6419703022849</v>
+        <v>278.2596849923459</v>
       </c>
       <c r="G21" t="n">
-        <v>217.9134703255694</v>
+        <v>149.5311850156305</v>
       </c>
       <c r="H21" t="n">
-        <v>117.9756128722675</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="I21" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J21" t="n">
-        <v>109.8474740954346</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="K21" t="n">
-        <v>265.4780334675172</v>
+        <v>279.0838801225171</v>
       </c>
       <c r="L21" t="n">
-        <v>631.2998786376328</v>
+        <v>644.9057252926327</v>
       </c>
       <c r="M21" t="n">
-        <v>1116.333232147859</v>
+        <v>1129.939078802859</v>
       </c>
       <c r="N21" t="n">
-        <v>1627.598878270981</v>
+        <v>1627.598878270982</v>
       </c>
       <c r="O21" t="n">
-        <v>2019.798829055132</v>
+        <v>2019.798829055133</v>
       </c>
       <c r="P21" t="n">
-        <v>2321.894748330829</v>
+        <v>2321.89474833083</v>
       </c>
       <c r="Q21" t="n">
-        <v>2479.666378116423</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="R21" t="n">
-        <v>2419.882109211369</v>
+        <v>2419.88210921137</v>
       </c>
       <c r="S21" t="n">
-        <v>2267.082622224109</v>
+        <v>2267.08262222411</v>
       </c>
       <c r="T21" t="n">
-        <v>2078.397518390095</v>
+        <v>2078.397518390096</v>
       </c>
       <c r="U21" t="n">
-        <v>1859.902725988405</v>
+        <v>1859.902725988406</v>
       </c>
       <c r="V21" t="n">
-        <v>1631.507103436739</v>
+        <v>1631.50710343674</v>
       </c>
       <c r="W21" t="n">
-        <v>1390.191234670049</v>
+        <v>1390.19123467005</v>
       </c>
       <c r="X21" t="n">
-        <v>1192.274246547843</v>
+        <v>1192.274246547844</v>
       </c>
       <c r="Y21" t="n">
-        <v>999.7529201974222</v>
+        <v>999.7529201974231</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="C22" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="D22" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="E22" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="F22" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="G22" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="H22" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="I22" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J22" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="K22" t="n">
-        <v>83.19751530697188</v>
+        <v>83.19751530697189</v>
       </c>
       <c r="L22" t="n">
         <v>183.8045947072314</v>
@@ -5926,34 +5926,34 @@
         <v>518.6840890801232</v>
       </c>
       <c r="P22" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475196</v>
       </c>
       <c r="Q22" t="n">
-        <v>585.5578919475188</v>
+        <v>585.5578919475196</v>
       </c>
       <c r="R22" t="n">
-        <v>585.5578919475188</v>
+        <v>585.5578919475196</v>
       </c>
       <c r="S22" t="n">
-        <v>544.5792654046124</v>
+        <v>544.5792654046131</v>
       </c>
       <c r="T22" t="n">
-        <v>484.1314482736974</v>
+        <v>484.131448273698</v>
       </c>
       <c r="U22" t="n">
-        <v>369.6723448162033</v>
+        <v>369.6723448162039</v>
       </c>
       <c r="V22" t="n">
-        <v>281.668176428032</v>
+        <v>281.6681764280324</v>
       </c>
       <c r="W22" t="n">
-        <v>168.2429109988372</v>
+        <v>168.2429109988375</v>
       </c>
       <c r="X22" t="n">
-        <v>109.7215829476191</v>
+        <v>109.7215829476193</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.41756019330222</v>
+        <v>60.41756019330234</v>
       </c>
     </row>
     <row r="23">
@@ -5969,49 +5969,49 @@
         <v>1116.709846338099</v>
       </c>
       <c r="D23" t="n">
-        <v>916.6170176187285</v>
+        <v>916.6170176187286</v>
       </c>
       <c r="E23" t="n">
-        <v>694.5624337782414</v>
+        <v>694.5624337782415</v>
       </c>
       <c r="F23" t="n">
-        <v>453.1423791418177</v>
+        <v>453.1423791418179</v>
       </c>
       <c r="G23" t="n">
-        <v>209.7695286494118</v>
+        <v>209.7695286494112</v>
       </c>
       <c r="H23" t="n">
-        <v>49.67939030012639</v>
+        <v>49.6793903001265</v>
       </c>
       <c r="I23" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J23" t="n">
-        <v>242.7233851412942</v>
+        <v>121.5918718351342</v>
       </c>
       <c r="K23" t="n">
-        <v>482.863757186077</v>
+        <v>361.732243879917</v>
       </c>
       <c r="L23" t="n">
-        <v>830.7491302710232</v>
+        <v>878.9114034108063</v>
       </c>
       <c r="M23" t="n">
-        <v>1223.988296524111</v>
+        <v>1272.150569663894</v>
       </c>
       <c r="N23" t="n">
-        <v>1602.319655211827</v>
+        <v>1819.775714797553</v>
       </c>
       <c r="O23" t="n">
-        <v>2076.618026130604</v>
+        <v>2157.077227973834</v>
       </c>
       <c r="P23" t="n">
-        <v>2304.774922586657</v>
+        <v>2385.234124429887</v>
       </c>
       <c r="Q23" t="n">
-        <v>2399.207176273194</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="R23" t="n">
-        <v>2479.666378116423</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="S23" t="n">
         <v>2465.168538800184</v>
@@ -6026,7 +6026,7 @@
         <v>2167.138390301348</v>
       </c>
       <c r="W23" t="n">
-        <v>1977.334596212355</v>
+        <v>1977.334596212356</v>
       </c>
       <c r="X23" t="n">
         <v>1768.035591787255</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>928.9060880643725</v>
+        <v>860.5238027544336</v>
       </c>
       <c r="C24" t="n">
-        <v>767.2024153053272</v>
+        <v>698.8201299953884</v>
       </c>
       <c r="D24" t="n">
-        <v>628.3637782955393</v>
+        <v>559.9814929856004</v>
       </c>
       <c r="E24" t="n">
-        <v>481.3357683524106</v>
+        <v>412.9534830424716</v>
       </c>
       <c r="F24" t="n">
-        <v>346.6419703022849</v>
+        <v>278.2596849923459</v>
       </c>
       <c r="G24" t="n">
-        <v>217.9134703255694</v>
+        <v>149.5311850156305</v>
       </c>
       <c r="H24" t="n">
-        <v>117.9756128722675</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="I24" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J24" t="n">
-        <v>49.59332756232847</v>
+        <v>109.8474740954346</v>
       </c>
       <c r="K24" t="n">
-        <v>279.0838801225171</v>
+        <v>339.3380266556233</v>
       </c>
       <c r="L24" t="n">
-        <v>631.2998786376328</v>
+        <v>705.1598718257389</v>
       </c>
       <c r="M24" t="n">
-        <v>1116.333232147859</v>
+        <v>1190.193225335966</v>
       </c>
       <c r="N24" t="n">
-        <v>1627.598878270981</v>
+        <v>1701.458871459088</v>
       </c>
       <c r="O24" t="n">
-        <v>2019.798829055132</v>
+        <v>2093.658822243239</v>
       </c>
       <c r="P24" t="n">
-        <v>2321.894748330829</v>
+        <v>2321.89474833083</v>
       </c>
       <c r="Q24" t="n">
-        <v>2479.666378116423</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="R24" t="n">
-        <v>2419.882109211369</v>
+        <v>2440.072434549641</v>
       </c>
       <c r="S24" t="n">
-        <v>2267.082622224109</v>
+        <v>2287.272947562381</v>
       </c>
       <c r="T24" t="n">
-        <v>2166.970129038306</v>
+        <v>2098.587843728367</v>
       </c>
       <c r="U24" t="n">
-        <v>1948.475336636616</v>
+        <v>1880.093051326677</v>
       </c>
       <c r="V24" t="n">
-        <v>1720.07971408495</v>
+        <v>1651.697428775011</v>
       </c>
       <c r="W24" t="n">
-        <v>1478.76384531826</v>
+        <v>1410.381560008321</v>
       </c>
       <c r="X24" t="n">
-        <v>1280.846857196055</v>
+        <v>1212.464571886116</v>
       </c>
       <c r="Y24" t="n">
-        <v>1088.325530845633</v>
+        <v>1019.943245535695</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="C25" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="D25" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="E25" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="F25" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="G25" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="H25" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="I25" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J25" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="K25" t="n">
-        <v>83.19751530697188</v>
+        <v>83.19751530697189</v>
       </c>
       <c r="L25" t="n">
-        <v>187.7099138464892</v>
+        <v>183.8045947072314</v>
       </c>
       <c r="M25" t="n">
-        <v>305.7034199740909</v>
+        <v>301.7981008348331</v>
       </c>
       <c r="N25" t="n">
-        <v>424.1257617236913</v>
+        <v>420.2204425844335</v>
       </c>
       <c r="O25" t="n">
-        <v>522.589408219381</v>
+        <v>518.6840890801232</v>
       </c>
       <c r="P25" t="n">
-        <v>585.5578919475188</v>
+        <v>585.5578919475196</v>
       </c>
       <c r="Q25" t="n">
-        <v>585.5578919475188</v>
+        <v>585.5578919475196</v>
       </c>
       <c r="R25" t="n">
-        <v>585.5578919475188</v>
+        <v>585.5578919475196</v>
       </c>
       <c r="S25" t="n">
-        <v>544.5792654046124</v>
+        <v>544.5792654046131</v>
       </c>
       <c r="T25" t="n">
-        <v>484.1314482736974</v>
+        <v>484.131448273698</v>
       </c>
       <c r="U25" t="n">
-        <v>369.6723448162033</v>
+        <v>369.6723448162039</v>
       </c>
       <c r="V25" t="n">
-        <v>281.668176428032</v>
+        <v>281.6681764280324</v>
       </c>
       <c r="W25" t="n">
-        <v>168.2429109988372</v>
+        <v>168.2429109988375</v>
       </c>
       <c r="X25" t="n">
-        <v>109.7215829476191</v>
+        <v>109.7215829476193</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.41756019330222</v>
+        <v>60.41756019330234</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1743.470271795865</v>
+        <v>1422.858215795353</v>
       </c>
       <c r="C26" t="n">
-        <v>1476.112437884439</v>
+        <v>1155.500381883927</v>
       </c>
       <c r="D26" t="n">
-        <v>1217.864397867429</v>
+        <v>897.252341866917</v>
       </c>
       <c r="E26" t="n">
-        <v>937.6546027293025</v>
+        <v>617.0425467287903</v>
       </c>
       <c r="F26" t="n">
-        <v>638.8517617792277</v>
+        <v>317.4672807947269</v>
       </c>
       <c r="G26" t="n">
-        <v>337.3236999891821</v>
+        <v>317.4672807947269</v>
       </c>
       <c r="H26" t="n">
-        <v>119.0783503422578</v>
+        <v>119.0783503422577</v>
       </c>
       <c r="I26" t="n">
         <v>60.83707630682017</v>
@@ -6227,16 +6227,16 @@
         <v>245.1314844327525</v>
       </c>
       <c r="K26" t="n">
-        <v>597.5677203306615</v>
+        <v>597.5677203306619</v>
       </c>
       <c r="L26" t="n">
-        <v>1057.748957268734</v>
+        <v>1057.748957268735</v>
       </c>
       <c r="M26" t="n">
         <v>1563.283987374949</v>
       </c>
       <c r="N26" t="n">
-        <v>2053.911209915791</v>
+        <v>2053.911209915792</v>
       </c>
       <c r="O26" t="n">
         <v>2471.211658241752</v>
@@ -6248,28 +6248,28 @@
         <v>3018.392536090596</v>
       </c>
       <c r="R26" t="n">
-        <v>3041.853815341009</v>
+        <v>3041.853815341008</v>
       </c>
       <c r="S26" t="n">
-        <v>3041.853815341009</v>
+        <v>2969.200764727129</v>
       </c>
       <c r="T26" t="n">
-        <v>2932.070793827786</v>
+        <v>2859.417743213906</v>
       </c>
       <c r="U26" t="n">
-        <v>2791.761382297546</v>
+        <v>2719.108331683667</v>
       </c>
       <c r="V26" t="n">
-        <v>2569.358032949254</v>
+        <v>2496.704982335375</v>
       </c>
       <c r="W26" t="n">
-        <v>2569.358032949254</v>
+        <v>2248.745976948742</v>
       </c>
       <c r="X26" t="n">
-        <v>2301.903817226514</v>
+        <v>1981.291761226001</v>
       </c>
       <c r="Y26" t="n">
-        <v>2022.937886558118</v>
+        <v>1702.325830557606</v>
       </c>
     </row>
     <row r="27">
@@ -6285,19 +6285,19 @@
         <v>763.7335465897143</v>
       </c>
       <c r="D27" t="n">
-        <v>639.6075270400311</v>
+        <v>624.8949095799263</v>
       </c>
       <c r="E27" t="n">
-        <v>492.5795170969022</v>
+        <v>477.8668996367975</v>
       </c>
       <c r="F27" t="n">
-        <v>357.8857190467766</v>
+        <v>343.1731015866719</v>
       </c>
       <c r="G27" t="n">
-        <v>229.1572190700612</v>
+        <v>214.4446016099565</v>
       </c>
       <c r="H27" t="n">
-        <v>129.2193616167592</v>
+        <v>114.5067441566545</v>
       </c>
       <c r="I27" t="n">
         <v>60.83707630682017</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.4785731901139</v>
+        <v>358.4785731901134</v>
       </c>
       <c r="C28" t="n">
-        <v>303.4385284075607</v>
+        <v>303.4385284075599</v>
       </c>
       <c r="D28" t="n">
-        <v>264.9425599910898</v>
+        <v>264.9425599910892</v>
       </c>
       <c r="E28" t="n">
-        <v>227.5094705081751</v>
+        <v>227.5094705081747</v>
       </c>
       <c r="F28" t="n">
-        <v>189.6047402897186</v>
+        <v>189.6047402897184</v>
       </c>
       <c r="G28" t="n">
-        <v>135.260916413335</v>
+        <v>135.2609164133351</v>
       </c>
       <c r="H28" t="n">
-        <v>90.46419594837525</v>
+        <v>90.46419594837521</v>
       </c>
       <c r="I28" t="n">
         <v>60.83707630682017</v>
       </c>
       <c r="J28" t="n">
-        <v>114.2708406219774</v>
+        <v>114.2708406219772</v>
       </c>
       <c r="K28" t="n">
-        <v>260.1708922197474</v>
+        <v>260.1708922197468</v>
       </c>
       <c r="L28" t="n">
-        <v>473.0738354731336</v>
+        <v>473.0738354731328</v>
       </c>
       <c r="M28" t="n">
-        <v>703.363205453862</v>
+        <v>703.3632054538609</v>
       </c>
       <c r="N28" t="n">
-        <v>934.081411056589</v>
+        <v>934.0814110565877</v>
       </c>
       <c r="O28" t="n">
-        <v>1144.840921405405</v>
+        <v>1144.840921405404</v>
       </c>
       <c r="P28" t="n">
-        <v>1320.10526898667</v>
+        <v>1320.105268986669</v>
       </c>
       <c r="Q28" t="n">
-        <v>1394.630684586277</v>
+        <v>1394.630684586276</v>
       </c>
       <c r="R28" t="n">
-        <v>1359.684827956422</v>
+        <v>1359.684827956421</v>
       </c>
       <c r="S28" t="n">
-        <v>1260.550990115876</v>
+        <v>1260.550990115875</v>
       </c>
       <c r="T28" t="n">
-        <v>1141.947961687321</v>
+        <v>1141.94796168732</v>
       </c>
       <c r="U28" t="n">
-        <v>969.3336469321871</v>
+        <v>969.3336469321862</v>
       </c>
       <c r="V28" t="n">
-        <v>823.1742672463762</v>
+        <v>823.1742672463752</v>
       </c>
       <c r="W28" t="n">
-        <v>651.5937905195416</v>
+        <v>651.5937905195409</v>
       </c>
       <c r="X28" t="n">
-        <v>534.9172511706837</v>
+        <v>534.9172511706831</v>
       </c>
       <c r="Y28" t="n">
-        <v>427.4580171187273</v>
+        <v>427.4580171187267</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1744.242696779854</v>
+        <v>1422.858215795352</v>
       </c>
       <c r="C29" t="n">
-        <v>1476.884862868428</v>
+        <v>1200.398239186066</v>
       </c>
       <c r="D29" t="n">
-        <v>1218.636822851418</v>
+        <v>942.1501991690558</v>
       </c>
       <c r="E29" t="n">
-        <v>938.427027713291</v>
+        <v>661.940404030929</v>
       </c>
       <c r="F29" t="n">
-        <v>638.8517617792277</v>
+        <v>362.3651380968658</v>
       </c>
       <c r="G29" t="n">
-        <v>337.323699989182</v>
+        <v>60.83707630682017</v>
       </c>
       <c r="H29" t="n">
-        <v>119.0783503422577</v>
+        <v>60.83707630682017</v>
       </c>
       <c r="I29" t="n">
         <v>60.83707630682017</v>
@@ -6464,7 +6464,7 @@
         <v>245.1314844327526</v>
       </c>
       <c r="K29" t="n">
-        <v>597.5677203306619</v>
+        <v>597.5677203306618</v>
       </c>
       <c r="L29" t="n">
         <v>1057.748957268735</v>
@@ -6485,28 +6485,28 @@
         <v>3018.392536090596</v>
       </c>
       <c r="R29" t="n">
-        <v>3041.853815341009</v>
+        <v>3041.853815341008</v>
       </c>
       <c r="S29" t="n">
-        <v>2969.200764727129</v>
+        <v>2969.200764727128</v>
       </c>
       <c r="T29" t="n">
         <v>2859.417743213906</v>
       </c>
       <c r="U29" t="n">
-        <v>2719.108331683667</v>
+        <v>2719.108331683666</v>
       </c>
       <c r="V29" t="n">
-        <v>2570.130457933243</v>
+        <v>2496.704982335374</v>
       </c>
       <c r="W29" t="n">
-        <v>2570.130457933243</v>
+        <v>2248.745976948741</v>
       </c>
       <c r="X29" t="n">
-        <v>2302.676242210503</v>
+        <v>1981.291761226001</v>
       </c>
       <c r="Y29" t="n">
-        <v>2023.710311542107</v>
+        <v>1702.325830557605</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>940.1498368088643</v>
+        <v>925.4372193487595</v>
       </c>
       <c r="C30" t="n">
-        <v>778.446164049819</v>
+        <v>763.7335465897143</v>
       </c>
       <c r="D30" t="n">
-        <v>639.6075270400311</v>
+        <v>624.8949095799263</v>
       </c>
       <c r="E30" t="n">
-        <v>492.5795170969022</v>
+        <v>477.8668996367975</v>
       </c>
       <c r="F30" t="n">
-        <v>357.8857190467766</v>
+        <v>343.1731015866719</v>
       </c>
       <c r="G30" t="n">
-        <v>229.1572190700612</v>
+        <v>214.4446016099565</v>
       </c>
       <c r="H30" t="n">
-        <v>129.2193616167592</v>
+        <v>114.5067441566545</v>
       </c>
       <c r="I30" t="n">
         <v>60.83707630682017</v>
@@ -6579,13 +6579,13 @@
         <v>1716.610845369337</v>
       </c>
       <c r="W30" t="n">
-        <v>1490.007594062752</v>
+        <v>1475.294976602647</v>
       </c>
       <c r="X30" t="n">
-        <v>1292.090605940546</v>
+        <v>1277.377988480441</v>
       </c>
       <c r="Y30" t="n">
-        <v>1099.569279590125</v>
+        <v>1084.85666213002</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.478573190114</v>
+        <v>358.4785731901141</v>
       </c>
       <c r="C31" t="n">
         <v>303.4385284075608</v>
@@ -6607,34 +6607,34 @@
         <v>227.5094705081752</v>
       </c>
       <c r="F31" t="n">
-        <v>189.6047402897186</v>
+        <v>189.6047402897187</v>
       </c>
       <c r="G31" t="n">
-        <v>135.260916413335</v>
+        <v>135.2609164133351</v>
       </c>
       <c r="H31" t="n">
-        <v>90.46419594837525</v>
+        <v>90.46419594837528</v>
       </c>
       <c r="I31" t="n">
         <v>60.83707630682017</v>
       </c>
       <c r="J31" t="n">
-        <v>114.2708406219777</v>
+        <v>114.2708406219774</v>
       </c>
       <c r="K31" t="n">
         <v>260.1708922197477</v>
       </c>
       <c r="L31" t="n">
-        <v>473.073835473134</v>
+        <v>473.0738354731338</v>
       </c>
       <c r="M31" t="n">
         <v>703.3632054538623</v>
       </c>
       <c r="N31" t="n">
-        <v>934.0814110565893</v>
+        <v>934.0814110565892</v>
       </c>
       <c r="O31" t="n">
-        <v>1144.840921405406</v>
+        <v>1144.840921405405</v>
       </c>
       <c r="P31" t="n">
         <v>1320.10526898667</v>
@@ -6652,19 +6652,19 @@
         <v>1141.947961687321</v>
       </c>
       <c r="U31" t="n">
-        <v>969.3336469321872</v>
+        <v>969.3336469321874</v>
       </c>
       <c r="V31" t="n">
-        <v>823.1742672463762</v>
+        <v>823.1742672463764</v>
       </c>
       <c r="W31" t="n">
-        <v>651.5937905195417</v>
+        <v>651.5937905195419</v>
       </c>
       <c r="X31" t="n">
-        <v>534.9172511706839</v>
+        <v>534.917251170684</v>
       </c>
       <c r="Y31" t="n">
-        <v>427.4580171187274</v>
+        <v>427.4580171187275</v>
       </c>
     </row>
     <row r="32">
@@ -6677,58 +6677,58 @@
         <v>1542.53631811171</v>
       </c>
       <c r="C32" t="n">
-        <v>1303.684062512361</v>
+        <v>1303.68406251236</v>
       </c>
       <c r="D32" t="n">
-        <v>1073.941600807428</v>
+        <v>1073.941600807427</v>
       </c>
       <c r="E32" t="n">
-        <v>822.2373839813782</v>
+        <v>822.2373839813775</v>
       </c>
       <c r="F32" t="n">
-        <v>551.167696359392</v>
+        <v>551.1676963593912</v>
       </c>
       <c r="G32" t="n">
-        <v>278.1452128814235</v>
+        <v>278.1452128814226</v>
       </c>
       <c r="H32" t="n">
-        <v>88.4054415465755</v>
+        <v>88.40544154657564</v>
       </c>
       <c r="I32" t="n">
-        <v>58.66974582321498</v>
+        <v>58.669745823215</v>
       </c>
       <c r="J32" t="n">
-        <v>193.7267841367459</v>
+        <v>270.9024712528139</v>
       </c>
       <c r="K32" t="n">
-        <v>574.1013373383221</v>
+        <v>651.2770244543899</v>
       </c>
       <c r="L32" t="n">
-        <v>921.9867104232684</v>
+        <v>1139.396578696129</v>
       </c>
       <c r="M32" t="n">
-        <v>1455.46005783315</v>
+        <v>1532.635744949217</v>
       </c>
       <c r="N32" t="n">
-        <v>1833.791416520865</v>
+        <v>1910.967103636933</v>
       </c>
       <c r="O32" t="n">
-        <v>2279.030182150493</v>
+        <v>2356.20586926656</v>
       </c>
       <c r="P32" t="n">
-        <v>2647.421259763339</v>
+        <v>2724.596946879406</v>
       </c>
       <c r="Q32" t="n">
-        <v>2882.08769460667</v>
+        <v>2882.087694606671</v>
       </c>
       <c r="R32" t="n">
-        <v>2933.487291160749</v>
+        <v>2933.48729116075</v>
       </c>
       <c r="S32" t="n">
-        <v>2889.339818858946</v>
+        <v>2889.339818858948</v>
       </c>
       <c r="T32" t="n">
-        <v>2808.062375657801</v>
+        <v>2808.062375657802</v>
       </c>
       <c r="U32" t="n">
         <v>2696.258542439638</v>
@@ -6740,7 +6740,7 @@
         <v>2282.907344328868</v>
       </c>
       <c r="X32" t="n">
-        <v>2043.958706918205</v>
+        <v>2043.958706918204</v>
       </c>
       <c r="Y32" t="n">
         <v>1793.498354561886</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>937.9825063252591</v>
+        <v>923.2698888651546</v>
       </c>
       <c r="C33" t="n">
-        <v>776.2788335662138</v>
+        <v>761.5662161061093</v>
       </c>
       <c r="D33" t="n">
-        <v>637.4401965564259</v>
+        <v>622.7275790963214</v>
       </c>
       <c r="E33" t="n">
-        <v>490.4121866132971</v>
+        <v>475.6995691531926</v>
       </c>
       <c r="F33" t="n">
-        <v>355.7183885631714</v>
+        <v>341.005771103067</v>
       </c>
       <c r="G33" t="n">
-        <v>226.9898885864559</v>
+        <v>212.2772711263516</v>
       </c>
       <c r="H33" t="n">
-        <v>127.052031133154</v>
+        <v>112.3394136730496</v>
       </c>
       <c r="I33" t="n">
-        <v>58.66974582321498</v>
+        <v>58.669745823215</v>
       </c>
       <c r="J33" t="n">
         <v>118.9238923563211</v>
@@ -6783,7 +6783,7 @@
         <v>348.4144449165098</v>
       </c>
       <c r="L33" t="n">
-        <v>714.2362900866253</v>
+        <v>714.2362900866254</v>
       </c>
       <c r="M33" t="n">
         <v>1199.269643596852</v>
@@ -6816,13 +6816,13 @@
         <v>1714.443514885732</v>
       </c>
       <c r="W33" t="n">
-        <v>1487.840263579146</v>
+        <v>1473.127646119042</v>
       </c>
       <c r="X33" t="n">
-        <v>1289.923275456941</v>
+        <v>1275.210657996837</v>
       </c>
       <c r="Y33" t="n">
-        <v>1097.40194910652</v>
+        <v>1082.689331646415</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.7721945219694</v>
+        <v>156.7721945219702</v>
       </c>
       <c r="C34" t="n">
-        <v>130.2377280514931</v>
+        <v>130.2377280514938</v>
       </c>
       <c r="D34" t="n">
-        <v>120.2473379470993</v>
+        <v>120.2473379470999</v>
       </c>
       <c r="E34" t="n">
-        <v>111.3198267762616</v>
+        <v>111.3198267762621</v>
       </c>
       <c r="F34" t="n">
-        <v>101.9206748698822</v>
+        <v>101.9206748698826</v>
       </c>
       <c r="G34" t="n">
-        <v>76.0824293055757</v>
+        <v>76.08242930557594</v>
       </c>
       <c r="H34" t="n">
-        <v>59.79128715269299</v>
+        <v>59.79128715269312</v>
       </c>
       <c r="I34" t="n">
-        <v>58.66974582321498</v>
+        <v>58.669745823215</v>
       </c>
       <c r="J34" t="n">
-        <v>58.66974582321498</v>
+        <v>58.669745823215</v>
       </c>
       <c r="K34" t="n">
-        <v>92.27393356785839</v>
+        <v>232.5081147246517</v>
       </c>
       <c r="L34" t="n">
-        <v>192.8810129681179</v>
+        <v>333.1151941249112</v>
       </c>
       <c r="M34" t="n">
-        <v>451.108700252513</v>
+        <v>516.2854479792197</v>
       </c>
       <c r="N34" t="n">
-        <v>709.7652231589068</v>
+        <v>634.7077897288201</v>
       </c>
       <c r="O34" t="n">
-        <v>873.4056173813011</v>
+        <v>733.1714362245098</v>
       </c>
       <c r="P34" t="n">
-        <v>936.3741011094389</v>
+        <v>936.3741011094409</v>
       </c>
       <c r="Q34" t="n">
-        <v>936.3741011094389</v>
+        <v>936.3741011094409</v>
       </c>
       <c r="R34" t="n">
-        <v>929.9338227916606</v>
+        <v>929.9338227916625</v>
       </c>
       <c r="S34" t="n">
-        <v>859.3055632631916</v>
+        <v>859.3055632631933</v>
       </c>
       <c r="T34" t="n">
-        <v>769.2081131467139</v>
+        <v>769.2081131467155</v>
       </c>
       <c r="U34" t="n">
-        <v>625.0993767036573</v>
+        <v>625.0993767036587</v>
       </c>
       <c r="V34" t="n">
-        <v>507.4455753299234</v>
+        <v>507.4455753299246</v>
       </c>
       <c r="W34" t="n">
-        <v>364.370676915166</v>
+        <v>364.3706769151671</v>
       </c>
       <c r="X34" t="n">
-        <v>276.1997158783852</v>
+        <v>276.1997158783862</v>
       </c>
       <c r="Y34" t="n">
-        <v>197.2460601385057</v>
+        <v>197.2460601385067</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6932,25 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J35" t="n">
-        <v>123.0992186348914</v>
+        <v>238.9081644362654</v>
       </c>
       <c r="K35" t="n">
-        <v>527.7073651707066</v>
+        <v>643.5163109720805</v>
       </c>
       <c r="L35" t="n">
-        <v>875.5927382556529</v>
+        <v>1155.869458548059</v>
       </c>
       <c r="M35" t="n">
-        <v>1268.831904508741</v>
+        <v>1549.108624801147</v>
       </c>
       <c r="N35" t="n">
-        <v>1811.631037687489</v>
+        <v>1927.439983488863</v>
       </c>
       <c r="O35" t="n">
-        <v>2116.635622160323</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P35" t="n">
         <v>2460.60146441775</v>
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>915.700817404025</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C36" t="n">
-        <v>753.9971446449797</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D36" t="n">
-        <v>615.1585076351918</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E36" t="n">
-        <v>468.130497692063</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F36" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G36" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K36" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L36" t="n">
         <v>706.6672186254962</v>
@@ -7038,22 +7038,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S36" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T36" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U36" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V36" t="n">
-        <v>1706.874443424602</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W36" t="n">
-        <v>1465.558574657912</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X36" t="n">
         <v>1267.641586535707</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749091</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K37" t="n">
-        <v>84.70486210672915</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L37" t="n">
         <v>185.3119415069887</v>
@@ -7105,13 +7105,13 @@
         <v>303.3054476345904</v>
       </c>
       <c r="N37" t="n">
-        <v>467.9465500458442</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O37" t="n">
-        <v>566.4101965415339</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P37" t="n">
-        <v>629.3786802696717</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q37" t="n">
         <v>629.3786802696717</v>
@@ -7126,19 +7126,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U37" t="n">
-        <v>398.7211345007349</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666898</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W37" t="n">
-        <v>187.4437015916211</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X37" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433847</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D38" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478541</v>
       </c>
       <c r="E38" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614932</v>
       </c>
       <c r="F38" t="n">
         <v>469.4217245791957</v>
@@ -7172,28 +7172,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K38" t="n">
-        <v>527.7073651707066</v>
+        <v>479.0485364810485</v>
       </c>
       <c r="L38" t="n">
-        <v>875.5927382556529</v>
+        <v>826.9339095659948</v>
       </c>
       <c r="M38" t="n">
-        <v>1268.831904508741</v>
+        <v>1220.173075819083</v>
       </c>
       <c r="N38" t="n">
-        <v>1811.631037687489</v>
+        <v>1598.504434506798</v>
       </c>
       <c r="O38" t="n">
-        <v>2116.635622160323</v>
+        <v>2067.976793470665</v>
       </c>
       <c r="P38" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7217,7 +7217,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y38" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C39" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D39" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E39" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F39" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G39" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H39" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I39" t="n">
         <v>51.10067436208574</v>
@@ -7275,28 +7275,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S39" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U39" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V39" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W39" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X39" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E40" t="n">
         <v>52.21328648670347</v>
@@ -7345,37 +7345,37 @@
         <v>421.7277893841908</v>
       </c>
       <c r="O40" t="n">
-        <v>520.1914358798805</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P40" t="n">
-        <v>583.1599196080183</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W40" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1402.683981160803</v>
+        <v>1315.263619900706</v>
       </c>
       <c r="C41" t="n">
-        <v>1182.729334917136</v>
+        <v>1095.308973657039</v>
       </c>
       <c r="D41" t="n">
-        <v>971.8844825678858</v>
+        <v>884.464121307788</v>
       </c>
       <c r="E41" t="n">
-        <v>739.0778750975186</v>
+        <v>651.6575138374207</v>
       </c>
       <c r="F41" t="n">
-        <v>486.9057968312148</v>
+        <v>399.4854355711166</v>
       </c>
       <c r="G41" t="n">
-        <v>232.7809227089287</v>
+        <v>145.3605614488302</v>
       </c>
       <c r="H41" t="n">
-        <v>61.93876072976383</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I41" t="n">
         <v>51.10067436208573</v>
       </c>
       <c r="J41" t="n">
-        <v>123.0992186348914</v>
+        <v>180.4111137621518</v>
       </c>
       <c r="K41" t="n">
-        <v>363.2395906796742</v>
+        <v>579.3072138932321</v>
       </c>
       <c r="L41" t="n">
-        <v>711.1249637646204</v>
+        <v>927.1925869781783</v>
       </c>
       <c r="M41" t="n">
-        <v>1104.364130017708</v>
+        <v>1320.431753231266</v>
       </c>
       <c r="N41" t="n">
-        <v>1540.007383832684</v>
+        <v>1698.763111918982</v>
       </c>
       <c r="O41" t="n">
-        <v>1845.011968305518</v>
+        <v>2162.523424478113</v>
       </c>
       <c r="P41" t="n">
-        <v>2231.924592847869</v>
+        <v>2390.680320934167</v>
       </c>
       <c r="Q41" t="n">
         <v>2485.112574620704</v>
@@ -7436,25 +7436,25 @@
         <v>2555.033718104287</v>
       </c>
       <c r="S41" t="n">
-        <v>2529.783855158167</v>
+        <v>2529.783855158166</v>
       </c>
       <c r="T41" t="n">
         <v>2467.404021312704</v>
       </c>
       <c r="U41" t="n">
-        <v>2461.91815871032</v>
+        <v>2374.497797450223</v>
       </c>
       <c r="V41" t="n">
-        <v>2286.917997029787</v>
+        <v>2199.49763576969</v>
       </c>
       <c r="W41" t="n">
-        <v>2086.362179310914</v>
+        <v>1998.941818050817</v>
       </c>
       <c r="X41" t="n">
-        <v>1866.311151255933</v>
+        <v>1778.890789995836</v>
       </c>
       <c r="Y41" t="n">
-        <v>1634.748408255297</v>
+        <v>1547.328046995199</v>
       </c>
     </row>
     <row r="42">
@@ -7476,13 +7476,13 @@
         <v>468.1304976920634</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G42" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H42" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I42" t="n">
         <v>51.10067436208573</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65.67816768550364</v>
+        <v>58.73753147687979</v>
       </c>
       <c r="C43" t="n">
-        <v>58.04131057070983</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D43" t="n">
-        <v>58.04131057070983</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E43" t="n">
-        <v>58.04131057070983</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F43" t="n">
-        <v>58.04131057070983</v>
+        <v>58.04131057071008</v>
       </c>
       <c r="G43" t="n">
         <v>51.10067436208573</v>
@@ -7585,34 +7585,34 @@
         <v>520.1914358798805</v>
       </c>
       <c r="P43" t="n">
-        <v>583.1599196080183</v>
+        <v>680.7182849011136</v>
       </c>
       <c r="Q43" t="n">
-        <v>687.6589211097356</v>
+        <v>680.7182849011136</v>
       </c>
       <c r="R43" t="n">
-        <v>687.6589211097356</v>
+        <v>680.7182849011136</v>
       </c>
       <c r="S43" t="n">
-        <v>635.928270936949</v>
+        <v>628.9876347283268</v>
       </c>
       <c r="T43" t="n">
-        <v>564.7284301761538</v>
+        <v>557.7877939675313</v>
       </c>
       <c r="U43" t="n">
-        <v>439.5173030887795</v>
+        <v>432.5766668801569</v>
       </c>
       <c r="V43" t="n">
-        <v>340.761111070728</v>
+        <v>333.8204748621051</v>
       </c>
       <c r="W43" t="n">
-        <v>216.583822011653</v>
+        <v>209.6431858030299</v>
       </c>
       <c r="X43" t="n">
-        <v>147.3104703305546</v>
+        <v>140.3698341219313</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.25442394635758</v>
+        <v>80.31378773773399</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1402.683981160803</v>
+        <v>1402.683981160804</v>
       </c>
       <c r="C44" t="n">
-        <v>1182.729334917136</v>
+        <v>1182.729334917138</v>
       </c>
       <c r="D44" t="n">
-        <v>971.8844825678858</v>
+        <v>971.8844825678868</v>
       </c>
       <c r="E44" t="n">
-        <v>739.0778750975186</v>
+        <v>739.0778750975194</v>
       </c>
       <c r="F44" t="n">
-        <v>486.9057968312148</v>
+        <v>486.9057968312154</v>
       </c>
       <c r="G44" t="n">
-        <v>232.7809227089287</v>
+        <v>232.7809227089291</v>
       </c>
       <c r="H44" t="n">
-        <v>61.93876072976384</v>
+        <v>61.93876072976404</v>
       </c>
       <c r="I44" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>281.8549467211891</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K44" t="n">
-        <v>521.9953187659719</v>
+        <v>521.9953187659717</v>
       </c>
       <c r="L44" t="n">
-        <v>869.8806918509181</v>
+        <v>869.8806918509179</v>
       </c>
       <c r="M44" t="n">
         <v>1263.119858104006</v>
@@ -7664,10 +7664,10 @@
         <v>2105.211529350853</v>
       </c>
       <c r="P44" t="n">
-        <v>2333.368425806907</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q44" t="n">
-        <v>2485.112574620704</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7685,13 +7685,13 @@
         <v>2199.497635769691</v>
       </c>
       <c r="W44" t="n">
-        <v>2086.362179310913</v>
+        <v>1998.941818050817</v>
       </c>
       <c r="X44" t="n">
-        <v>1866.311151255933</v>
+        <v>1778.890789995836</v>
       </c>
       <c r="Y44" t="n">
-        <v>1634.748408255296</v>
+        <v>1634.748408255298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E45" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F45" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I45" t="n">
         <v>51.10067436208574</v>
@@ -7749,28 +7749,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S45" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U45" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V45" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W45" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>58.73753147687955</v>
+        <v>58.73753147687975</v>
       </c>
       <c r="C46" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="D46" t="n">
-        <v>58.04131057070984</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E46" t="n">
-        <v>58.04131057070984</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F46" t="n">
-        <v>58.04131057070984</v>
+        <v>58.04131057071004</v>
       </c>
       <c r="G46" t="n">
         <v>51.10067436208574</v>
@@ -7804,52 +7804,52 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208574</v>
+        <v>148.6590396551808</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672915</v>
+        <v>182.2632273998242</v>
       </c>
       <c r="L46" t="n">
-        <v>185.3119415069887</v>
+        <v>282.8703068000837</v>
       </c>
       <c r="M46" t="n">
-        <v>400.8638129276836</v>
+        <v>400.8638129276854</v>
       </c>
       <c r="N46" t="n">
-        <v>519.286154677284</v>
+        <v>519.2861546772858</v>
       </c>
       <c r="O46" t="n">
-        <v>617.7498011729737</v>
+        <v>617.7498011729755</v>
       </c>
       <c r="P46" t="n">
-        <v>680.7182849011115</v>
+        <v>680.7182849011133</v>
       </c>
       <c r="Q46" t="n">
-        <v>680.7182849011115</v>
+        <v>680.7182849011133</v>
       </c>
       <c r="R46" t="n">
-        <v>680.7182849011115</v>
+        <v>680.7182849011133</v>
       </c>
       <c r="S46" t="n">
-        <v>628.9876347283249</v>
+        <v>628.9876347283265</v>
       </c>
       <c r="T46" t="n">
-        <v>557.7877939675296</v>
+        <v>557.787793967531</v>
       </c>
       <c r="U46" t="n">
-        <v>432.5766668801554</v>
+        <v>432.5766668801566</v>
       </c>
       <c r="V46" t="n">
-        <v>333.8204748621039</v>
+        <v>333.8204748621048</v>
       </c>
       <c r="W46" t="n">
-        <v>209.6431858030289</v>
+        <v>209.6431858030296</v>
       </c>
       <c r="X46" t="n">
-        <v>140.3698341219305</v>
+        <v>140.3698341219311</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.31378773773349</v>
+        <v>80.31378773773389</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7982,13 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
-        <v>542.9595789155856</v>
+        <v>531.0737809255694</v>
       </c>
       <c r="M2" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
-        <v>461.2790889106753</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
         <v>495.0402356415689</v>
@@ -7997,7 +7997,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,7 +8055,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
         <v>343.8048081163522</v>
@@ -8064,16 +8064,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>127.9889562673314</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>604.9267112876337</v>
+        <v>371.7837036118772</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8222,7 +8222,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
-        <v>584.3675935406823</v>
+        <v>477.0956807157801</v>
       </c>
       <c r="N5" t="n">
         <v>568.5510017355793</v>
@@ -8231,7 +8231,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>311.0664077980231</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
         <v>276.0094878578761</v>
@@ -8304,16 +8304,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>604.9267112876337</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
-        <v>438.2432899957015</v>
+        <v>471.9421843961421</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8544,13 +8544,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
-        <v>124.1300184260142</v>
+        <v>360.9263022629402</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8781,10 +8781,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>437.4149613343882</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>339.395545506559</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -9018,10 +9018,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
-        <v>512.0210150597484</v>
+        <v>437.4149613343891</v>
       </c>
       <c r="P15" t="n">
-        <v>339.395545506558</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
@@ -9258,10 +9258,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>414.0015992319183</v>
+        <v>339.395545506559</v>
       </c>
       <c r="Q18" t="n">
-        <v>198.4944203312434</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9477,10 +9477,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
-        <v>269.1987543909925</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>609.4018071971255</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9714,13 +9714,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>468.349169445002</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -9732,7 +9732,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>339.395545506559</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>52.69345381646863</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F11" t="n">
-        <v>296.5795132747226</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>57.6588612950832</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.92652010774083</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>112.6919056438558</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.56319401867222e-13</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>13.96265196551815</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>277.4076971867455</v>
       </c>
       <c r="F14" t="n">
-        <v>296.5795132747226</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H14" t="n">
         <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>57.6588612950832</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92652010774083</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.628261050283604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -24452,13 +24452,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7647007341485761</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>19.6578550025106</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774084</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24503,7 +24503,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>245.4794153327662</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>44.44887872911813</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24695,10 +24695,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24737,10 +24737,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>72.69122084188903</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>245.4794153327662</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>75.81645214349642</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>10.72970550400157</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>86.54615764749451</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25925,13 +25925,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>86.54615764749482</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>86.54615764749732</v>
       </c>
     </row>
     <row r="45">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>646465.0280706169</v>
+        <v>646465.028070617</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>646465.0280706169</v>
+        <v>646465.028070617</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>710052.255957118</v>
+        <v>710052.2559571181</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>686625.3520155781</v>
+        <v>686625.3520155783</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>686625.3520155783</v>
+        <v>686625.3520155781</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>703679.862369533</v>
+        <v>703679.8623695329</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>703679.8623695329</v>
+        <v>703679.8623695327</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>633289.8499077003</v>
+      </c>
+      <c r="C2" t="n">
+        <v>633289.8499076997</v>
+      </c>
+      <c r="D2" t="n">
         <v>633289.8499076999</v>
       </c>
-      <c r="C2" t="n">
-        <v>633289.8499077</v>
-      </c>
-      <c r="D2" t="n">
-        <v>633289.8499077</v>
-      </c>
       <c r="E2" t="n">
-        <v>576576.9169278481</v>
+        <v>576576.9169278486</v>
       </c>
       <c r="F2" t="n">
-        <v>576576.9169278484</v>
+        <v>576576.9169278482</v>
       </c>
       <c r="G2" t="n">
-        <v>633289.849907699</v>
+        <v>633289.8499076995</v>
       </c>
       <c r="H2" t="n">
         <v>633289.8499076992</v>
       </c>
       <c r="I2" t="n">
-        <v>633289.8499076993</v>
+        <v>633289.8499076995</v>
       </c>
       <c r="J2" t="n">
-        <v>612395.5842301109</v>
+        <v>612395.5842301114</v>
       </c>
       <c r="K2" t="n">
-        <v>612395.5842301109</v>
+        <v>612395.5842301104</v>
       </c>
       <c r="L2" t="n">
-        <v>633289.8499077003</v>
+        <v>633289.8499077004</v>
       </c>
       <c r="M2" t="n">
-        <v>633289.849907699</v>
+        <v>633289.8499076989</v>
       </c>
       <c r="N2" t="n">
-        <v>633289.8499076988</v>
+        <v>633289.8499076989</v>
       </c>
       <c r="O2" t="n">
-        <v>627606.3637349894</v>
+        <v>627606.363734989</v>
       </c>
       <c r="P2" t="n">
-        <v>627606.3637349895</v>
+        <v>627606.3637349892</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166962.156046812</v>
+        <v>166962.1560468122</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8415.473351528528</v>
+        <v>8415.473351528386</v>
       </c>
       <c r="E3" t="n">
         <v>118993.6101405801</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46058.92734773061</v>
+        <v>46058.92734773054</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>211812.5155937559</v>
+        <v>211812.515593756</v>
       </c>
       <c r="K3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>68635.34537089564</v>
+        <v>68635.34537089551</v>
       </c>
       <c r="M3" t="n">
-        <v>19582.70168423353</v>
+        <v>19582.70168423362</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40069.40998430333</v>
+        <v>40069.40998430321</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193077.2086614257</v>
+        <v>193077.2086614256</v>
       </c>
       <c r="C4" t="n">
-        <v>193077.2086614257</v>
+        <v>193077.2086614256</v>
       </c>
       <c r="D4" t="n">
-        <v>185775.7593332932</v>
+        <v>185775.7593332931</v>
       </c>
       <c r="E4" t="n">
         <v>138310.8849250983</v>
@@ -26430,19 +26430,19 @@
         <v>138310.8849250983</v>
       </c>
       <c r="G4" t="n">
-        <v>177298.4012420844</v>
+        <v>177298.4012420843</v>
       </c>
       <c r="H4" t="n">
-        <v>177298.4012420844</v>
+        <v>177298.4012420843</v>
       </c>
       <c r="I4" t="n">
-        <v>177298.4012420844</v>
+        <v>177298.4012420843</v>
       </c>
       <c r="J4" t="n">
+        <v>161896.3971701088</v>
+      </c>
+      <c r="K4" t="n">
         <v>161896.3971701087</v>
-      </c>
-      <c r="K4" t="n">
-        <v>161896.3971701088</v>
       </c>
       <c r="L4" t="n">
         <v>176099.8977090712</v>
@@ -26454,10 +26454,10 @@
         <v>175623.1205402357</v>
       </c>
       <c r="O4" t="n">
-        <v>171709.2306900061</v>
+        <v>171709.2306900058</v>
       </c>
       <c r="P4" t="n">
-        <v>171709.2306900061</v>
+        <v>171709.2306900059</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63918.86346937146</v>
+        <v>63918.86346937148</v>
       </c>
       <c r="C5" t="n">
-        <v>63918.86346937146</v>
+        <v>63918.86346937148</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>47226.88953147923</v>
+        <v>47226.88953147925</v>
       </c>
       <c r="F5" t="n">
-        <v>47226.88953147923</v>
+        <v>47226.88953147925</v>
       </c>
       <c r="G5" t="n">
         <v>52067.04948547469</v>
@@ -26494,7 +26494,7 @@
         <v>55772.13857729293</v>
       </c>
       <c r="K5" t="n">
-        <v>55772.13857729294</v>
+        <v>55772.13857729292</v>
       </c>
       <c r="L5" t="n">
         <v>56497.43851823981</v>
@@ -26506,10 +26506,10 @@
         <v>52802.81689264637</v>
       </c>
       <c r="O5" t="n">
-        <v>52317.76029749522</v>
+        <v>52317.7602974952</v>
       </c>
       <c r="P5" t="n">
-        <v>52317.76029749522</v>
+        <v>52317.76029749521</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>209331.6217300906</v>
+        <v>209331.6217300911</v>
       </c>
       <c r="C6" t="n">
-        <v>376293.7777769029</v>
+        <v>376293.7777769027</v>
       </c>
       <c r="D6" t="n">
         <v>373532.5825859669</v>
       </c>
       <c r="E6" t="n">
-        <v>272045.5323306905</v>
+        <v>271873.6749580246</v>
       </c>
       <c r="F6" t="n">
-        <v>391039.1424712709</v>
+        <v>390867.2850986045</v>
       </c>
       <c r="G6" t="n">
-        <v>357865.4718324093</v>
+        <v>357865.47183241</v>
       </c>
       <c r="H6" t="n">
         <v>403924.3991801401</v>
       </c>
       <c r="I6" t="n">
-        <v>403924.3991801402</v>
+        <v>403924.3991801405</v>
       </c>
       <c r="J6" t="n">
-        <v>182914.5328889533</v>
+        <v>182851.216932355</v>
       </c>
       <c r="K6" t="n">
-        <v>394727.0484827092</v>
+        <v>394663.73252611</v>
       </c>
       <c r="L6" t="n">
-        <v>332057.1683094937</v>
+        <v>332057.1683094939</v>
       </c>
       <c r="M6" t="n">
-        <v>385281.2107905835</v>
+        <v>385281.2107905833</v>
       </c>
       <c r="N6" t="n">
-        <v>404863.9124748168</v>
+        <v>404863.9124748169</v>
       </c>
       <c r="O6" t="n">
-        <v>363509.9627631849</v>
+        <v>363492.7400778129</v>
       </c>
       <c r="P6" t="n">
-        <v>403579.3727474883</v>
+        <v>403562.1500621162</v>
       </c>
     </row>
   </sheetData>
@@ -26698,22 +26698,22 @@
         <v>113.4301655082087</v>
       </c>
       <c r="G2" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="H2" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="I2" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="J2" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="K2" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="L2" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26722,10 +26722,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="O2" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="P2" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
     </row>
     <row r="3">
@@ -26787,40 +26787,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.2115702199254</v>
+        <v>498.2115702199258</v>
       </c>
       <c r="C4" t="n">
-        <v>498.2115702199254</v>
+        <v>498.2115702199258</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>619.9165945291059</v>
+        <v>619.9165945291061</v>
       </c>
       <c r="F4" t="n">
-        <v>619.9165945291059</v>
+        <v>619.9165945291061</v>
       </c>
       <c r="G4" t="n">
-        <v>619.9165945291059</v>
+        <v>619.9165945291061</v>
       </c>
       <c r="H4" t="n">
-        <v>619.9165945291059</v>
+        <v>619.9165945291061</v>
       </c>
       <c r="I4" t="n">
-        <v>619.9165945291059</v>
+        <v>619.9165945291061</v>
       </c>
       <c r="J4" t="n">
-        <v>760.4634538352522</v>
+        <v>760.463453835252</v>
       </c>
       <c r="K4" t="n">
-        <v>760.4634538352522</v>
+        <v>760.463453835252</v>
       </c>
       <c r="L4" t="n">
-        <v>733.3718227901873</v>
+        <v>733.3718227901875</v>
       </c>
       <c r="M4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="N4" t="n">
         <v>638.7584295260717</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.57365918466326</v>
+        <v>57.57365918466317</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>55.85650632354547</v>
+        <v>55.85650632354557</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.79418171361954</v>
+        <v>85.79418171361938</v>
       </c>
       <c r="M2" t="n">
-        <v>24.47837710529191</v>
+        <v>24.47837710529203</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>50.08676248037916</v>
+        <v>50.08676248037901</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.2115702199254</v>
+        <v>498.2115702199258</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>27.09163104506496</v>
+        <v>27.0916310450645</v>
       </c>
       <c r="E4" t="n">
-        <v>94.61339326411547</v>
+        <v>94.61339326411576</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260718</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.57365918466326</v>
+        <v>57.57365918466317</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>55.85650632354547</v>
+        <v>55.85650632354557</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>498.2115702199254</v>
+        <v>498.2115702199258</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.09163104506496</v>
+        <v>27.0916310450645</v>
       </c>
       <c r="M4" t="n">
-        <v>94.61339326411547</v>
+        <v>94.61339326411576</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>31.13474340424546</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>108.913028048091</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,13 +27509,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>207.0348170935588</v>
       </c>
       <c r="V3" t="n">
-        <v>75.66460341397729</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>11.2625539964817</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
         <v>157.7789187685189</v>
@@ -27591,10 +27591,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
@@ -27603,7 +27603,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>359.7997350726424</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>57.3546000786925</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>25.07963485834935</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>84.70830328331303</v>
       </c>
     </row>
     <row r="7">
@@ -27828,19 +27828,19 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>15.70763571947958</v>
+        <v>260.6893290097386</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>311.5070750174734</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>197.8412973518813</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27938,16 +27938,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>83.78110046712344</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -27995,7 +27995,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>27.43752473892764</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
         <v>151.5411742405149</v>
@@ -28026,13 +28026,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>1.177755971299604</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
@@ -28068,10 +28068,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>162.710699643229</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28111,16 +28111,16 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>34.3403131676296</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
         <v>113.4301655082087</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -28132,7 +28132,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="Q11" t="n">
-        <v>34.34031316762895</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>89.73190363910518</v>
@@ -28184,10 +28184,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>19.9884220848886</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,13 +28214,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>28.5004583257253</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28354,25 +28354,25 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N14" t="n">
-        <v>113.4301655082087</v>
+        <v>34.34031316762957</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>10.6420512985249</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
         <v>113.4301655082087</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,13 +28451,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>19.98842208488819</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>87.6868845417292</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28561,40 +28561,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="C17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="D17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="E17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="F17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="G17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="H17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="I17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="J17" t="n">
-        <v>122.3550639456164</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>171.003824692872</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28603,34 +28603,34 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>32.6231603065122</v>
       </c>
       <c r="R17" t="n">
-        <v>171.003824692872</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="T17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="U17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="V17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="W17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="X17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="Y17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
     </row>
     <row r="18">
@@ -28652,7 +28652,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>19.98842208488868</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,7 +28691,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>87.68688454172917</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3.944766807331135</v>
+        <v>3.944766807331945</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="T19" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="U19" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="V19" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="W19" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="X19" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
     </row>
     <row r="20">
@@ -28798,40 +28798,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="C20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="D20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="E20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="F20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="G20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="H20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="I20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>32.62316030651215</v>
       </c>
       <c r="M20" t="n">
-        <v>32.62316030651101</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28840,7 +28840,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="T20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="U20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="V20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="W20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="X20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="Y20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
     </row>
     <row r="21">
@@ -28883,13 +28883,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>19.98842208488874</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>87.68688454172917</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -28998,34 +28998,34 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>3.944766807331945</v>
       </c>
       <c r="Q22" t="n">
-        <v>42.09673474017897</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="T22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="U22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="V22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="W22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="X22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
     </row>
     <row r="23">
@@ -29035,46 +29035,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="C23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="D23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="E23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="F23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="G23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="H23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="I23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="J23" t="n">
-        <v>122.3550639456162</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="O23" t="n">
-        <v>171.003824692872</v>
+        <v>32.62316030651203</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>171.003824692872</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="T23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="U23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="V23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="W23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="X23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="Y23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
     </row>
     <row r="24">
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,13 +29162,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>19.98842208488819</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>87.6868845417292</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -29223,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>3.944766807331135</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29235,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>3.944766807331945</v>
       </c>
       <c r="Q25" t="n">
         <v>38.15196793284785</v>
@@ -29244,25 +29244,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="T25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="U25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="V25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="W25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="X25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="C26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="D26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="E26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="H26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="I26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="J26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="K26" t="n">
+        <v>113.4301655082088</v>
+      </c>
+      <c r="L26" t="n">
+        <v>113.4301655082088</v>
+      </c>
+      <c r="M26" t="n">
+        <v>113.4301655082088</v>
+      </c>
+      <c r="N26" t="n">
+        <v>113.4301655082088</v>
+      </c>
+      <c r="O26" t="n">
         <v>113.4301655082083</v>
       </c>
-      <c r="L26" t="n">
-        <v>113.4301655082087</v>
-      </c>
-      <c r="M26" t="n">
-        <v>113.4301655082087</v>
-      </c>
-      <c r="N26" t="n">
-        <v>113.4301655082087</v>
-      </c>
-      <c r="O26" t="n">
-        <v>113.4301655082087</v>
-      </c>
       <c r="P26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="R26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="S26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="T26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="U26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="V26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="W26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="X26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Y26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
     </row>
     <row r="27">
@@ -29357,7 +29357,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>14.5654912855037</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>14.56549128550358</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="C28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="D28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="E28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="H28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="I28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="J28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="K28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="L28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="M28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="N28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="O28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="P28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Q28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="R28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="S28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="T28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="U28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="V28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="W28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="X28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Y28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
     </row>
     <row r="29">
@@ -29609,7 +29609,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>14.56549128550358</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29651,7 +29651,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="C32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="D32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="E32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="F32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="G32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="H32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="I32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="J32" t="n">
-        <v>63.69544852598517</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="K32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="M32" t="n">
-        <v>141.650688037165</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="P32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="Q32" t="n">
-        <v>141.650688037165</v>
+        <v>63.69544852598742</v>
       </c>
       <c r="R32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="S32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="T32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="U32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="V32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="W32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="X32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
     </row>
     <row r="33">
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>14.56549128550336</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29888,7 +29888,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>14.5654912855035</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="C34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="D34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="E34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="F34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="G34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="H34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="I34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="J34" t="n">
         <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>141.650688037165</v>
+        <v>65.83509871384527</v>
       </c>
       <c r="N34" t="n">
-        <v>141.650688037165</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>65.83509871384308</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="Q34" t="n">
         <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="S34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="T34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="U34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="V34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="W34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="X34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="Y34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371649</v>
       </c>
     </row>
     <row r="35">
@@ -30007,25 +30007,25 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>116.978733132701</v>
       </c>
       <c r="K35" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>116.9787331327009</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -30074,7 +30074,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>14.56549128550374</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>46.68561682995299</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>38.15196793284785</v>
+        <v>84.83758476280077</v>
       </c>
       <c r="R37" t="n">
         <v>148.0265635717656</v>
@@ -30244,31 +30244,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>116.9787331327014</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
+      <c r="P38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>40.58157162934918</v>
-      </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30387,7 +30387,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>151.6127747272213</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -30417,13 +30417,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>45.56176619902595</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.83758476280077</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
         <v>148.0265635717656</v>
@@ -30457,34 +30457,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="C41" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="D41" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="E41" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="F41" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="G41" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="H41" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="I41" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>57.89080315884894</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30493,40 +30493,40 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>57.89080315884888</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="P41" t="n">
-        <v>160.3593212992906</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>160.3593212992906</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="S41" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="T41" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="U41" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="V41" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="W41" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="X41" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="Y41" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
     </row>
     <row r="42">
@@ -30548,7 +30548,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="C43" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30627,10 +30627,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>157.9665920695558</v>
       </c>
       <c r="G43" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="H43" t="n">
         <v>157.7789187685189</v>
@@ -30657,34 +30657,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>98.54380332635894</v>
       </c>
       <c r="Q43" t="n">
-        <v>143.7065149042795</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="T43" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="U43" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="V43" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="W43" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="X43" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="Y43" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
     </row>
     <row r="44">
@@ -30694,34 +30694,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="C44" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="D44" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="E44" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="F44" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="G44" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="H44" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="I44" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="J44" t="n">
-        <v>160.3593212992906</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -30730,40 +30730,40 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>128.5182208190342</v>
       </c>
       <c r="Q44" t="n">
-        <v>57.89080315884846</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>160.3593212992906</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="T44" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="U44" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="V44" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="W44" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="X44" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="Y44" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
     </row>
     <row r="45">
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30830,7 +30830,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30852,22 +30852,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="C46" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="D46" t="n">
-        <v>158.5519178855897</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>157.9665920695557</v>
       </c>
       <c r="G46" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="H46" t="n">
         <v>157.7789187685189</v>
@@ -30876,7 +30876,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
-        <v>59.456666199969</v>
+        <v>158.0004695263276</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>98.54380332635679</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="T46" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="U46" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="V46" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="W46" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="X46" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="Y46" t="n">
-        <v>160.3593212992906</v>
+        <v>160.3593212992904</v>
       </c>
     </row>
   </sheetData>
@@ -33755,7 +33755,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>-5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -33986,7 +33986,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -34702,13 +34702,13 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
-        <v>351.3993667524709</v>
+        <v>339.5135687624548</v>
       </c>
       <c r="M2" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
-        <v>274.8809747384452</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
         <v>308.0854388614484</v>
@@ -34717,7 +34717,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
         <v>231.8086389496855</v>
@@ -34784,16 +34784,16 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>12.50505370569155</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>498.2115702199254</v>
+        <v>265.0685625441689</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -34942,7 +34942,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
-        <v>397.2112790435232</v>
+        <v>289.939366218621</v>
       </c>
       <c r="N5" t="n">
         <v>382.1528875633492</v>
@@ -34951,7 +34951,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>123.1895987468667</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
         <v>95.38611483488586</v>
@@ -35024,16 +35024,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>498.2115702199254</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>322.3838413845904</v>
+        <v>356.082735785031</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>15.27581240187084</v>
+        <v>252.0720962387968</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>186.155967803972</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>242.5660323684674</v>
+        <v>276.906345536097</v>
       </c>
       <c r="L11" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
-        <v>397.2112790435232</v>
+        <v>510.6414445517319</v>
       </c>
       <c r="N11" t="n">
         <v>382.1528875633492</v>
@@ -35428,7 +35428,7 @@
         <v>343.8916770799797</v>
       </c>
       <c r="Q11" t="n">
-        <v>129.7264280025148</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O12" t="n">
-        <v>321.5555127232771</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
-        <v>305.147393207775</v>
+        <v>230.5413394824156</v>
       </c>
       <c r="Q12" t="n">
         <v>159.3652826117113</v>
@@ -35650,25 +35650,25 @@
         <v>355.9961978766762</v>
       </c>
       <c r="L14" t="n">
-        <v>351.3993667524709</v>
+        <v>464.8295322606797</v>
       </c>
       <c r="M14" t="n">
-        <v>397.2112790435232</v>
+        <v>510.6414445517319</v>
       </c>
       <c r="N14" t="n">
-        <v>495.583053071558</v>
+        <v>416.4932007309788</v>
       </c>
       <c r="O14" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>241.1035628702958</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>208.8162803430946</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
-        <v>23.69826186910356</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O15" t="n">
-        <v>396.1615664486372</v>
+        <v>321.555512723278</v>
       </c>
       <c r="P15" t="n">
-        <v>230.5413394824147</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
         <v>159.3652826117113</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>195.0808662413797</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>522.4031914453429</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>397.2112790435232</v>
+        <v>568.2151037363951</v>
       </c>
       <c r="N17" t="n">
         <v>382.1528875633492</v>
@@ -35899,13 +35899,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>230.4615115717709</v>
+        <v>401.4653362646428</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.38611483488586</v>
+        <v>128.0092751413981</v>
       </c>
       <c r="R17" t="n">
-        <v>81.27192105376682</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35978,10 +35978,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
-        <v>305.147393207775</v>
+        <v>230.5413394824156</v>
       </c>
       <c r="Q18" t="n">
-        <v>84.75922888635087</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N19" t="n">
-        <v>123.5632938271295</v>
+        <v>123.5632938271303</v>
       </c>
       <c r="O19" t="n">
         <v>99.45822878352493</v>
@@ -36121,13 +36121,13 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>413.5698570613395</v>
+        <v>413.5698570613393</v>
       </c>
       <c r="L20" t="n">
-        <v>351.3993667524709</v>
+        <v>384.0225270589831</v>
       </c>
       <c r="M20" t="n">
-        <v>429.8344393500342</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
         <v>382.1528875633492</v>
@@ -36136,7 +36136,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>401.4653362646429</v>
+        <v>401.4653362646428</v>
       </c>
       <c r="Q20" t="n">
         <v>95.38611483488586</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>157.2025852243258</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36209,7 +36209,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
-        <v>516.4299455789112</v>
+        <v>502.6866661294172</v>
       </c>
       <c r="O21" t="n">
         <v>396.1615664486372</v>
@@ -36294,10 +36294,10 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P22" t="n">
-        <v>63.604529018321</v>
+        <v>67.54929582565295</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.944766807331124</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,22 +36355,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>195.0808662413795</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>351.3993667524709</v>
+        <v>522.4031914453428</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>382.1528875633492</v>
+        <v>553.1567122562211</v>
       </c>
       <c r="O23" t="n">
-        <v>479.0892635543204</v>
+        <v>340.7085991679605</v>
       </c>
       <c r="P23" t="n">
         <v>230.4615115717709</v>
@@ -36379,7 +36379,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
-        <v>81.27192105376682</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
-        <v>355.7737358738542</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M24" t="n">
         <v>489.93268031336</v>
@@ -36452,7 +36452,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>305.147393207775</v>
+        <v>230.5413394824156</v>
       </c>
       <c r="Q24" t="n">
         <v>159.3652826117113</v>
@@ -36519,7 +36519,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L25" t="n">
-        <v>105.5680793328458</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M25" t="n">
         <v>119.1853597248502</v>
@@ -36531,7 +36531,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P25" t="n">
-        <v>63.604529018321</v>
+        <v>67.54929582565295</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>186.155967803972</v>
+        <v>186.1559678039721</v>
       </c>
       <c r="K26" t="n">
-        <v>355.9961978766758</v>
+        <v>355.9961978766762</v>
       </c>
       <c r="L26" t="n">
         <v>464.8295322606797</v>
       </c>
       <c r="M26" t="n">
-        <v>510.6414445517319</v>
+        <v>510.641444551732</v>
       </c>
       <c r="N26" t="n">
         <v>495.583053071558</v>
       </c>
       <c r="O26" t="n">
-        <v>421.5156043696572</v>
+        <v>421.5156043696567</v>
       </c>
       <c r="P26" t="n">
         <v>343.8916770799797</v>
@@ -36616,7 +36616,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910355</v>
+        <v>23.69826186910359</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823977</v>
       </c>
       <c r="K28" t="n">
-        <v>147.373789492697</v>
+        <v>147.3737894926971</v>
       </c>
       <c r="L28" t="n">
         <v>215.0534780337234</v>
@@ -36768,10 +36768,10 @@
         <v>212.8883942917337</v>
       </c>
       <c r="P28" t="n">
-        <v>177.0346945265297</v>
+        <v>177.0346945265298</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536092</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>186.155967803972</v>
       </c>
       <c r="K29" t="n">
-        <v>355.9961978766762</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L29" t="n">
         <v>464.8295322606797</v>
@@ -36844,7 +36844,7 @@
         <v>495.583053071558</v>
       </c>
       <c r="O29" t="n">
-        <v>421.5156043696572</v>
+        <v>421.5156043696571</v>
       </c>
       <c r="P29" t="n">
         <v>343.8916770799797</v>
@@ -36853,7 +36853,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>23.69826186910356</v>
+        <v>23.69826186910353</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823972</v>
       </c>
       <c r="K31" t="n">
         <v>147.373789492697</v>
@@ -36996,19 +36996,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M31" t="n">
-        <v>232.615525233059</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N31" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O31" t="n">
-        <v>212.8883942917337</v>
+        <v>212.8883942917336</v>
       </c>
       <c r="P31" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536086</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>136.4212508217485</v>
+        <v>214.3764903329282</v>
       </c>
       <c r="K32" t="n">
-        <v>384.2167204056325</v>
+        <v>384.2167204056324</v>
       </c>
       <c r="L32" t="n">
-        <v>351.3993667524709</v>
+        <v>493.0500547896359</v>
       </c>
       <c r="M32" t="n">
-        <v>538.8619670806881</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N32" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O32" t="n">
-        <v>449.7361268986135</v>
+        <v>449.7361268986133</v>
       </c>
       <c r="P32" t="n">
-        <v>372.112199608936</v>
+        <v>372.1121996089358</v>
       </c>
       <c r="Q32" t="n">
-        <v>237.0368028720509</v>
+        <v>159.0815633608733</v>
       </c>
       <c r="R32" t="n">
-        <v>51.91878439805984</v>
+        <v>51.91878439805973</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37227,22 +37227,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>33.9436239844883</v>
+        <v>175.5943120216532</v>
       </c>
       <c r="L34" t="n">
         <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
-        <v>260.8360477620153</v>
+        <v>185.0204584386955</v>
       </c>
       <c r="N34" t="n">
-        <v>261.2692150569634</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
-        <v>165.293327497368</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
-        <v>63.604529018321</v>
+        <v>205.2552170554859</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.72580229576329</v>
+        <v>189.7045354284643</v>
       </c>
       <c r="K35" t="n">
         <v>408.6950975109244</v>
       </c>
       <c r="L35" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M35" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
-        <v>347.4402447044718</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
         <v>95.38611483488586</v>
@@ -37403,7 +37403,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.3652826117107</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N37" t="n">
-        <v>166.3041438497513</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O37" t="n">
         <v>99.45822878352493</v>
@@ -37482,7 +37482,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>46.68561682995292</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
-        <v>242.5660323684674</v>
+        <v>359.5447655011688</v>
       </c>
       <c r="L38" t="n">
         <v>351.3993667524709</v>
@@ -37552,19 +37552,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P38" t="n">
-        <v>271.0430832011201</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q38" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O39" t="n">
-        <v>396.1615664486372</v>
+        <v>396.161566448637</v>
       </c>
       <c r="P39" t="n">
         <v>305.147393207775</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O40" t="n">
-        <v>99.45822878352493</v>
+        <v>145.0199949825509</v>
       </c>
       <c r="P40" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.68561682995292</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>72.72580229576329</v>
+        <v>130.6166054546122</v>
       </c>
       <c r="K41" t="n">
-        <v>242.5660323684674</v>
+        <v>402.9253536677578</v>
       </c>
       <c r="L41" t="n">
         <v>351.3993667524709</v>
@@ -37789,19 +37789,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
-        <v>440.0436907221981</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
-        <v>308.0854388614484</v>
+        <v>468.4447601607388</v>
       </c>
       <c r="P41" t="n">
-        <v>390.8208328710616</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>255.7454361341765</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
-        <v>70.62741766018544</v>
+        <v>70.62741766018519</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>7.010743645075106</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37953,10 +37953,10 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
-        <v>63.604529018321</v>
+        <v>162.1483323446799</v>
       </c>
       <c r="Q43" t="n">
-        <v>105.5545469714316</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>233.0851235950539</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>242.5660323684674</v>
+        <v>402.9253536677579</v>
       </c>
       <c r="L44" t="n">
         <v>351.3993667524709</v>
@@ -38026,19 +38026,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>542.5122088626399</v>
+        <v>542.5122088626397</v>
       </c>
       <c r="O44" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>230.4615115717709</v>
+        <v>358.9797323908052</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.2769179937343</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>70.62741766018544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38108,7 +38108,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O45" t="n">
-        <v>396.1615664486372</v>
+        <v>396.161566448637</v>
       </c>
       <c r="P45" t="n">
         <v>305.147393207775</v>
@@ -38154,13 +38154,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>7.010743645074847</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>7.010743645075048</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>98.54380332635863</v>
       </c>
       <c r="K46" t="n">
         <v>33.9436239844883</v>
@@ -38181,7 +38181,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
-        <v>217.729163051207</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N46" t="n">
         <v>119.6185270197983</v>
